--- a/raw data/sorted/Narodna Banka Srbije/NOT USED/M2 novaca masa.xlsx
+++ b/raw data/sorted/Narodna Banka Srbije/NOT USED/M2 novaca masa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25712"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mace\OneDrive - Zühlke Engineering AG\Documents\master-thesis-code\raw data\Narodna Banka Srbije\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_3800\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75371F9F-07FB-487D-9139-55988BCAA191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2754BE3-E436-4208-A0EF-A419926FB107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40740" yWindow="2340" windowWidth="28800" windowHeight="15400" tabRatio="608" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" tabRatio="608" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Srb" sheetId="7" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Eng!$A$1:$K$261</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Srb!$A$1:$K$256</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Srb!$A$1:$K$262</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Eng!$3:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Srb!$3:$9</definedName>
   </definedNames>
@@ -32,6 +32,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="94">
   <si>
     <t xml:space="preserve">Датум ажурирања: </t>
   </si>
@@ -219,6 +220,32 @@
     <t>2022.</t>
   </si>
   <si>
+    <t xml:space="preserve">НАПОМЕНE: </t>
+  </si>
+  <si>
+    <t>Од 31. децембра 2014. године ступио је на снагу нови Контни оквир за банке и друге финансијске организације, усклађен са Међународним рачуноводственим стандардима.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Од децембра 2014. године извршена је прекласификација институционалних јединица. На основу табела секторизације приказаних на интернет страници НБС https://nbs.rs/sr_RS/drugi-nivo-navigacije/statistika/sekt_klasifikacija/ извршена је подела по институционалним секторима у складу са Европским системом рачуна (ESA 2010). </t>
+  </si>
+  <si>
+    <t>Повезане институционалне јединице које улазе или не улазе у круг консолидације (из сектора финансија и осигурања, јавних предузећа, привредних друштава, страних лица и других комитената) почев од децембра 2014. године распоређене су на припадајуће секторе у складу са Европским системом рачуна (ESA 2010) и више се не приказују одвојено.</t>
+  </si>
+  <si>
+    <r>
+      <t>Од краја 2014. године као критеријум за утврђивање да ли се предузеће сматра јавним предузећем или привредним друштвом користи се критеријум власништва, контроле и управљања. Због тога је крајем 2014. забележено веће учешће кредита јавним предузећима у укупним кредитима у односу на претходне године.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Updated: </t>
   </si>
   <si>
@@ -319,7 +346,7 @@
     <numFmt numFmtId="165" formatCode="[$-C1A]d\.\ mmmm\ yyyy;@"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -403,6 +430,12 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
     </font>
@@ -583,7 +616,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -641,26 +674,18 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -710,6 +735,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -719,16 +762,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1071,91 +1108,91 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K259"/>
+  <dimension ref="A1:K265"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A229" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="9" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q244" sqref="Q244"/>
       <selection activeCell="L238" sqref="L238"/>
-      <selection pane="bottomLeft" activeCell="A256" sqref="A256:XFD261"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="8.6999999999999993" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="9.75"/>
   <cols>
-    <col min="1" max="1" width="3.27734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.27734375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="5.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.27734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1640625" style="2"/>
+    <col min="1" max="1" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
-      <c r="B1" s="38" t="s">
+    <row r="1" spans="1:11" ht="12.75">
+      <c r="B1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39">
+      <c r="C1" s="56"/>
+      <c r="D1" s="57">
         <v>44796</v>
       </c>
-      <c r="E1" s="39"/>
+      <c r="E1" s="57"/>
       <c r="F1" s="32"/>
       <c r="G1" s="31"/>
       <c r="H1" s="34"/>
       <c r="I1" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="11.4" x14ac:dyDescent="0.4">
-      <c r="B3" s="40" t="s">
+    <row r="3" spans="1:11" ht="12">
+      <c r="B3" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="40"/>
-    </row>
-    <row r="4" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
-      <c r="B4" s="41" t="s">
+      <c r="C3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" ht="12.75">
+      <c r="B4" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-    </row>
-    <row r="5" spans="1:11" ht="11.4" x14ac:dyDescent="0.4">
-      <c r="B5" s="40" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+    </row>
+    <row r="5" spans="1:11" ht="12">
+      <c r="B5" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-    </row>
-    <row r="6" spans="1:11" ht="10.199999999999999" x14ac:dyDescent="0.35">
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+    </row>
+    <row r="6" spans="1:11" ht="11.25">
       <c r="B6" s="13"/>
     </row>
-    <row r="7" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="49"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="55" t="s">
+    <row r="7" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="47"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="44"/>
-    </row>
-    <row r="8" spans="1:11" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="51"/>
-      <c r="B8" s="52"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="42"/>
+    </row>
+    <row r="8" spans="1:11" s="6" customFormat="1" ht="27" customHeight="1">
+      <c r="A8" s="49"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="7" t="s">
         <v>5</v>
       </c>
@@ -1177,12 +1214,12 @@
       <c r="I8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="45"/>
-      <c r="K8" s="46"/>
-    </row>
-    <row r="9" spans="1:11" s="6" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="44"/>
+    </row>
+    <row r="9" spans="1:11" s="6" customFormat="1" ht="8.25" customHeight="1">
+      <c r="A9" s="51"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="8">
         <v>1</v>
       </c>
@@ -1204,10 +1241,10 @@
       <c r="I9" s="8">
         <v>7</v>
       </c>
-      <c r="J9" s="47"/>
-      <c r="K9" s="48"/>
-    </row>
-    <row r="10" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="45"/>
+      <c r="K9" s="46"/>
+    </row>
+    <row r="10" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="27" t="s">
         <v>12</v>
       </c>
@@ -1236,7 +1273,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="21" t="s">
         <v>13</v>
       </c>
@@ -1265,7 +1302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="21" t="s">
         <v>14</v>
       </c>
@@ -1294,7 +1331,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="21" t="s">
         <v>15</v>
       </c>
@@ -1323,7 +1360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="21" t="s">
         <v>16</v>
       </c>
@@ -1352,7 +1389,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="19" t="s">
         <v>17</v>
       </c>
@@ -1381,7 +1418,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="19" t="s">
         <v>18</v>
       </c>
@@ -1410,7 +1447,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="19" t="s">
         <v>19</v>
       </c>
@@ -1439,7 +1476,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="19" t="s">
         <v>20</v>
       </c>
@@ -1468,7 +1505,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="19" t="s">
         <v>21</v>
       </c>
@@ -1497,7 +1534,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="19" t="s">
         <v>22</v>
       </c>
@@ -1526,7 +1563,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="19" t="s">
         <v>23</v>
       </c>
@@ -1555,7 +1592,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="19" t="s">
         <v>24</v>
       </c>
@@ -1584,7 +1621,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="19" t="s">
         <v>25</v>
       </c>
@@ -1613,7 +1650,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="19" t="s">
         <v>26</v>
       </c>
@@ -1642,7 +1679,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="19" t="s">
         <v>27</v>
       </c>
@@ -1671,7 +1708,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="19" t="s">
         <v>28</v>
       </c>
@@ -1700,7 +1737,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="19" t="s">
         <v>29</v>
       </c>
@@ -1729,7 +1766,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="24" t="s">
         <v>30</v>
       </c>
@@ -1758,7 +1795,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="24" t="s">
         <v>31</v>
       </c>
@@ -1787,7 +1824,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="24" t="s">
         <v>32</v>
       </c>
@@ -1816,7 +1853,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A31" s="24" t="s">
         <v>33</v>
       </c>
@@ -1845,7 +1882,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A32" s="21" t="s">
         <v>34</v>
       </c>
@@ -1876,7 +1913,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A33" s="21" t="s">
         <v>17</v>
       </c>
@@ -1911,7 +1948,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B34" s="22" t="s">
         <v>36</v>
       </c>
@@ -1940,7 +1977,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B35" s="22" t="s">
         <v>37</v>
       </c>
@@ -1969,7 +2006,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B36" s="22" t="s">
         <v>38</v>
       </c>
@@ -1998,7 +2035,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B37" s="22" t="s">
         <v>39</v>
       </c>
@@ -2027,7 +2064,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B38" s="22" t="s">
         <v>40</v>
       </c>
@@ -2056,7 +2093,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B39" s="22" t="s">
         <v>41</v>
       </c>
@@ -2085,7 +2122,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B40" s="22" t="s">
         <v>42</v>
       </c>
@@ -2114,7 +2151,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B41" s="22" t="s">
         <v>43</v>
       </c>
@@ -2143,7 +2180,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B42" s="22" t="s">
         <v>44</v>
       </c>
@@ -2172,7 +2209,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B43" s="22" t="s">
         <v>45</v>
       </c>
@@ -2201,7 +2238,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B44" s="22" t="s">
         <v>46</v>
       </c>
@@ -2230,7 +2267,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A45" s="21" t="s">
         <v>18</v>
       </c>
@@ -2265,7 +2302,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B46" s="22" t="s">
         <v>36</v>
       </c>
@@ -2294,7 +2331,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B47" s="22" t="s">
         <v>37</v>
       </c>
@@ -2323,7 +2360,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B48" s="22" t="s">
         <v>38</v>
       </c>
@@ -2352,7 +2389,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B49" s="22" t="s">
         <v>39</v>
       </c>
@@ -2381,7 +2418,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B50" s="22" t="s">
         <v>40</v>
       </c>
@@ -2410,7 +2447,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B51" s="22" t="s">
         <v>41</v>
       </c>
@@ -2439,7 +2476,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B52" s="22" t="s">
         <v>42</v>
       </c>
@@ -2468,7 +2505,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B53" s="22" t="s">
         <v>43</v>
       </c>
@@ -2497,7 +2534,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B54" s="22" t="s">
         <v>44</v>
       </c>
@@ -2526,7 +2563,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B55" s="22" t="s">
         <v>45</v>
       </c>
@@ -2555,7 +2592,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B56" s="22" t="s">
         <v>46</v>
       </c>
@@ -2584,7 +2621,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A57" s="21" t="s">
         <v>19</v>
       </c>
@@ -2619,7 +2656,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B58" s="22" t="s">
         <v>36</v>
       </c>
@@ -2648,7 +2685,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B59" s="22" t="s">
         <v>37</v>
       </c>
@@ -2677,7 +2714,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B60" s="22" t="s">
         <v>38</v>
       </c>
@@ -2706,7 +2743,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B61" s="22" t="s">
         <v>39</v>
       </c>
@@ -2735,7 +2772,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B62" s="22" t="s">
         <v>40</v>
       </c>
@@ -2764,7 +2801,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B63" s="22" t="s">
         <v>41</v>
       </c>
@@ -2793,7 +2830,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B64" s="22" t="s">
         <v>42</v>
       </c>
@@ -2822,7 +2859,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B65" s="22" t="s">
         <v>43</v>
       </c>
@@ -2851,7 +2888,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B66" s="22" t="s">
         <v>44</v>
       </c>
@@ -2880,7 +2917,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B67" s="22" t="s">
         <v>45</v>
       </c>
@@ -2909,7 +2946,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B68" s="22" t="s">
         <v>46</v>
       </c>
@@ -2938,7 +2975,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A69" s="21" t="s">
         <v>20</v>
       </c>
@@ -2973,7 +3010,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B70" s="22" t="s">
         <v>36</v>
       </c>
@@ -3002,7 +3039,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B71" s="22" t="s">
         <v>37</v>
       </c>
@@ -3031,7 +3068,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B72" s="22" t="s">
         <v>38</v>
       </c>
@@ -3060,7 +3097,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B73" s="22" t="s">
         <v>39</v>
       </c>
@@ -3089,7 +3126,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B74" s="22" t="s">
         <v>40</v>
       </c>
@@ -3118,7 +3155,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B75" s="22" t="s">
         <v>41</v>
       </c>
@@ -3147,7 +3184,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B76" s="22" t="s">
         <v>47</v>
       </c>
@@ -3176,7 +3213,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B77" s="22" t="s">
         <v>48</v>
       </c>
@@ -3205,7 +3242,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B78" s="22" t="s">
         <v>49</v>
       </c>
@@ -3234,7 +3271,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B79" s="22" t="s">
         <v>50</v>
       </c>
@@ -3263,7 +3300,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B80" s="22" t="s">
         <v>51</v>
       </c>
@@ -3292,7 +3329,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A81" s="19" t="s">
         <v>21</v>
       </c>
@@ -3327,7 +3364,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B82" s="22" t="s">
         <v>52</v>
       </c>
@@ -3356,7 +3393,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B83" s="22" t="s">
         <v>53</v>
       </c>
@@ -3385,7 +3422,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B84" s="22" t="s">
         <v>54</v>
       </c>
@@ -3414,7 +3451,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B85" s="22" t="s">
         <v>55</v>
       </c>
@@ -3443,7 +3480,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B86" s="22" t="s">
         <v>56</v>
       </c>
@@ -3472,7 +3509,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="87" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B87" s="22" t="s">
         <v>57</v>
       </c>
@@ -3501,7 +3538,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B88" s="22" t="s">
         <v>47</v>
       </c>
@@ -3530,7 +3567,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B89" s="22" t="s">
         <v>48</v>
       </c>
@@ -3559,7 +3596,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="90" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B90" s="22" t="s">
         <v>49</v>
       </c>
@@ -3588,7 +3625,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="91" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B91" s="22" t="s">
         <v>50</v>
       </c>
@@ -3617,7 +3654,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B92" s="22" t="s">
         <v>51</v>
       </c>
@@ -3646,7 +3683,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A93" s="19" t="s">
         <v>22</v>
       </c>
@@ -3681,7 +3718,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B94" s="22" t="s">
         <v>52</v>
       </c>
@@ -3710,7 +3747,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B95" s="22" t="s">
         <v>53</v>
       </c>
@@ -3739,7 +3776,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B96" s="22" t="s">
         <v>54</v>
       </c>
@@ -3768,7 +3805,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="97" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B97" s="22" t="s">
         <v>55</v>
       </c>
@@ -3797,7 +3834,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="98" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B98" s="22" t="s">
         <v>56</v>
       </c>
@@ -3826,7 +3863,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="99" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B99" s="22" t="s">
         <v>57</v>
       </c>
@@ -3855,7 +3892,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="100" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B100" s="22" t="s">
         <v>47</v>
       </c>
@@ -3884,7 +3921,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B101" s="22" t="s">
         <v>48</v>
       </c>
@@ -3913,7 +3950,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="102" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B102" s="22" t="s">
         <v>49</v>
       </c>
@@ -3942,7 +3979,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="103" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B103" s="22" t="s">
         <v>50</v>
       </c>
@@ -3971,7 +4008,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="104" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B104" s="22" t="s">
         <v>51</v>
       </c>
@@ -4000,7 +4037,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="105" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A105" s="19" t="s">
         <v>23</v>
       </c>
@@ -4035,7 +4072,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B106" s="22" t="s">
         <v>52</v>
       </c>
@@ -4064,7 +4101,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="107" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B107" s="22" t="s">
         <v>53</v>
       </c>
@@ -4093,7 +4130,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="108" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B108" s="22" t="s">
         <v>54</v>
       </c>
@@ -4122,7 +4159,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="109" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B109" s="22" t="s">
         <v>55</v>
       </c>
@@ -4151,7 +4188,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="110" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B110" s="22" t="s">
         <v>56</v>
       </c>
@@ -4180,7 +4217,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="111" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B111" s="22" t="s">
         <v>57</v>
       </c>
@@ -4209,7 +4246,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="112" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B112" s="22" t="s">
         <v>47</v>
       </c>
@@ -4238,7 +4275,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="113" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B113" s="22" t="s">
         <v>48</v>
       </c>
@@ -4267,7 +4304,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="114" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B114" s="22" t="s">
         <v>49</v>
       </c>
@@ -4296,7 +4333,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="115" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B115" s="22" t="s">
         <v>50</v>
       </c>
@@ -4325,7 +4362,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="116" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B116" s="22" t="s">
         <v>51</v>
       </c>
@@ -4354,7 +4391,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="117" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A117" s="19" t="s">
         <v>24</v>
       </c>
@@ -4389,7 +4426,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B118" s="22" t="s">
         <v>52</v>
       </c>
@@ -4418,7 +4455,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="119" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B119" s="22" t="s">
         <v>53</v>
       </c>
@@ -4447,7 +4484,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="120" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B120" s="22" t="s">
         <v>54</v>
       </c>
@@ -4476,7 +4513,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="121" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B121" s="22" t="s">
         <v>55</v>
       </c>
@@ -4505,7 +4542,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="122" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B122" s="22" t="s">
         <v>56</v>
       </c>
@@ -4534,7 +4571,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="123" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B123" s="22" t="s">
         <v>57</v>
       </c>
@@ -4563,7 +4600,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="124" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B124" s="22" t="s">
         <v>47</v>
       </c>
@@ -4592,7 +4629,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="125" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B125" s="22" t="s">
         <v>48</v>
       </c>
@@ -4621,7 +4658,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="126" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B126" s="22" t="s">
         <v>49</v>
       </c>
@@ -4650,7 +4687,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="127" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B127" s="22" t="s">
         <v>50</v>
       </c>
@@ -4679,7 +4716,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="128" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B128" s="22" t="s">
         <v>51</v>
       </c>
@@ -4708,7 +4745,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="129" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A129" s="19" t="s">
         <v>25</v>
       </c>
@@ -4743,7 +4780,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="130" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B130" s="22" t="s">
         <v>52</v>
       </c>
@@ -4772,7 +4809,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="131" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B131" s="22" t="s">
         <v>53</v>
       </c>
@@ -4801,7 +4838,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="132" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B132" s="22" t="s">
         <v>54</v>
       </c>
@@ -4830,7 +4867,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="133" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B133" s="22" t="s">
         <v>55</v>
       </c>
@@ -4859,7 +4896,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="134" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B134" s="22" t="s">
         <v>56</v>
       </c>
@@ -4888,7 +4925,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="135" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B135" s="22" t="s">
         <v>57</v>
       </c>
@@ -4917,7 +4954,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="136" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B136" s="22" t="s">
         <v>47</v>
       </c>
@@ -4946,7 +4983,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="137" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B137" s="22" t="s">
         <v>48</v>
       </c>
@@ -4975,7 +5012,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="138" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B138" s="22" t="s">
         <v>49</v>
       </c>
@@ -5004,7 +5041,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="139" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B139" s="22" t="s">
         <v>50</v>
       </c>
@@ -5033,7 +5070,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="140" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B140" s="22" t="s">
         <v>51</v>
       </c>
@@ -5062,7 +5099,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="141" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A141" s="21" t="s">
         <v>26</v>
       </c>
@@ -5097,7 +5134,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="142" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B142" s="22" t="s">
         <v>52</v>
       </c>
@@ -5126,7 +5163,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="143" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B143" s="22" t="s">
         <v>53</v>
       </c>
@@ -5155,7 +5192,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="144" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B144" s="22" t="s">
         <v>54</v>
       </c>
@@ -5184,7 +5221,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="145" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B145" s="22" t="s">
         <v>55</v>
       </c>
@@ -5213,7 +5250,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="146" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B146" s="22" t="s">
         <v>56</v>
       </c>
@@ -5242,7 +5279,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="147" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B147" s="22" t="s">
         <v>57</v>
       </c>
@@ -5271,7 +5308,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="148" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B148" s="22" t="s">
         <v>47</v>
       </c>
@@ -5300,7 +5337,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="149" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B149" s="22" t="s">
         <v>48</v>
       </c>
@@ -5329,7 +5366,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="150" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B150" s="22" t="s">
         <v>49</v>
       </c>
@@ -5358,7 +5395,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="151" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B151" s="22" t="s">
         <v>50</v>
       </c>
@@ -5387,7 +5424,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="152" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B152" s="22" t="s">
         <v>51</v>
       </c>
@@ -5416,7 +5453,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="153" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A153" s="21" t="s">
         <v>27</v>
       </c>
@@ -5451,7 +5488,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="154" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A154" s="21"/>
       <c r="B154" s="22" t="s">
         <v>52</v>
@@ -5482,7 +5519,7 @@
       </c>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A155" s="21"/>
       <c r="B155" s="22" t="s">
         <v>53</v>
@@ -5513,7 +5550,7 @@
       </c>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A156" s="21"/>
       <c r="B156" s="22" t="s">
         <v>54</v>
@@ -5544,7 +5581,7 @@
       </c>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A157" s="21"/>
       <c r="B157" s="22" t="s">
         <v>55</v>
@@ -5575,7 +5612,7 @@
       </c>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A158" s="21"/>
       <c r="B158" s="22" t="s">
         <v>56</v>
@@ -5606,7 +5643,7 @@
       </c>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A159" s="21"/>
       <c r="B159" s="22" t="s">
         <v>57</v>
@@ -5637,7 +5674,7 @@
       </c>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A160" s="21"/>
       <c r="B160" s="22" t="s">
         <v>47</v>
@@ -5668,7 +5705,7 @@
       </c>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A161" s="21"/>
       <c r="B161" s="22" t="s">
         <v>48</v>
@@ -5699,7 +5736,7 @@
       </c>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A162" s="21"/>
       <c r="B162" s="22" t="s">
         <v>49</v>
@@ -5730,7 +5767,7 @@
       </c>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A163" s="21"/>
       <c r="B163" s="22" t="s">
         <v>50</v>
@@ -5761,7 +5798,7 @@
       </c>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A164" s="21"/>
       <c r="B164" s="22" t="s">
         <v>51</v>
@@ -5792,7 +5829,7 @@
       </c>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A165" s="21" t="s">
         <v>28</v>
       </c>
@@ -5827,7 +5864,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="166" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A166" s="21"/>
       <c r="B166" s="22" t="s">
         <v>52</v>
@@ -5858,7 +5895,7 @@
       </c>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A167" s="21"/>
       <c r="B167" s="22" t="s">
         <v>53</v>
@@ -5889,7 +5926,7 @@
       </c>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A168" s="21"/>
       <c r="B168" s="22" t="s">
         <v>54</v>
@@ -5920,7 +5957,7 @@
       </c>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A169" s="21"/>
       <c r="B169" s="22" t="s">
         <v>55</v>
@@ -5951,7 +5988,7 @@
       </c>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A170" s="21"/>
       <c r="B170" s="22" t="s">
         <v>56</v>
@@ -5982,7 +6019,7 @@
       </c>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A171" s="21"/>
       <c r="B171" s="22" t="s">
         <v>57</v>
@@ -6013,7 +6050,7 @@
       </c>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A172" s="21"/>
       <c r="B172" s="22" t="s">
         <v>47</v>
@@ -6044,7 +6081,7 @@
       </c>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A173" s="21"/>
       <c r="B173" s="22" t="s">
         <v>48</v>
@@ -6075,7 +6112,7 @@
       </c>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A174" s="21"/>
       <c r="B174" s="22" t="s">
         <v>49</v>
@@ -6106,7 +6143,7 @@
       </c>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A175" s="21"/>
       <c r="B175" s="22" t="s">
         <v>50</v>
@@ -6137,7 +6174,7 @@
       </c>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A176" s="21"/>
       <c r="B176" s="22" t="s">
         <v>51</v>
@@ -6168,7 +6205,7 @@
       </c>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A177" s="21" t="s">
         <v>29</v>
       </c>
@@ -6203,7 +6240,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="178" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A178" s="21"/>
       <c r="B178" s="22" t="s">
         <v>52</v>
@@ -6234,7 +6271,7 @@
       </c>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A179" s="21"/>
       <c r="B179" s="22" t="s">
         <v>53</v>
@@ -6265,7 +6302,7 @@
       </c>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A180" s="21"/>
       <c r="B180" s="22" t="s">
         <v>54</v>
@@ -6296,7 +6333,7 @@
       </c>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A181" s="21"/>
       <c r="B181" s="22" t="s">
         <v>55</v>
@@ -6327,7 +6364,7 @@
       </c>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A182" s="21"/>
       <c r="B182" s="22" t="s">
         <v>56</v>
@@ -6358,7 +6395,7 @@
       </c>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A183" s="21"/>
       <c r="B183" s="22" t="s">
         <v>57</v>
@@ -6389,7 +6426,7 @@
       </c>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A184" s="21"/>
       <c r="B184" s="22" t="s">
         <v>47</v>
@@ -6420,7 +6457,7 @@
       </c>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A185" s="21"/>
       <c r="B185" s="22" t="s">
         <v>48</v>
@@ -6451,7 +6488,7 @@
       </c>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A186" s="21"/>
       <c r="B186" s="22" t="s">
         <v>49</v>
@@ -6482,7 +6519,7 @@
       </c>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A187" s="21"/>
       <c r="B187" s="22" t="s">
         <v>50</v>
@@ -6513,7 +6550,7 @@
       </c>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A188" s="21"/>
       <c r="B188" s="22" t="s">
         <v>51</v>
@@ -6544,7 +6581,7 @@
       </c>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A189" s="21" t="s">
         <v>30</v>
       </c>
@@ -6579,7 +6616,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="190" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A190" s="21"/>
       <c r="B190" s="22" t="s">
         <v>52</v>
@@ -6610,7 +6647,7 @@
       </c>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A191" s="21"/>
       <c r="B191" s="22" t="s">
         <v>53</v>
@@ -6641,7 +6678,7 @@
       </c>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A192" s="21"/>
       <c r="B192" s="22" t="s">
         <v>54</v>
@@ -6672,7 +6709,7 @@
       </c>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A193" s="21"/>
       <c r="B193" s="22" t="s">
         <v>55</v>
@@ -6703,7 +6740,7 @@
       </c>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A194" s="21"/>
       <c r="B194" s="22" t="s">
         <v>56</v>
@@ -6734,7 +6771,7 @@
       </c>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A195" s="21"/>
       <c r="B195" s="22" t="s">
         <v>57</v>
@@ -6765,7 +6802,7 @@
       </c>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A196" s="21"/>
       <c r="B196" s="22" t="s">
         <v>47</v>
@@ -6796,7 +6833,7 @@
       </c>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A197" s="21"/>
       <c r="B197" s="22" t="s">
         <v>48</v>
@@ -6827,7 +6864,7 @@
       </c>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A198" s="21"/>
       <c r="B198" s="22" t="s">
         <v>49</v>
@@ -6858,7 +6895,7 @@
       </c>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A199" s="21"/>
       <c r="B199" s="22" t="s">
         <v>50</v>
@@ -6889,7 +6926,7 @@
       </c>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A200" s="21"/>
       <c r="B200" s="22" t="s">
         <v>51</v>
@@ -6920,7 +6957,7 @@
       </c>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A201" s="21" t="s">
         <v>31</v>
       </c>
@@ -6955,7 +6992,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="202" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A202" s="21"/>
       <c r="B202" s="22" t="s">
         <v>52</v>
@@ -6986,7 +7023,7 @@
       </c>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A203" s="21"/>
       <c r="B203" s="22" t="s">
         <v>53</v>
@@ -7017,7 +7054,7 @@
       </c>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A204" s="21"/>
       <c r="B204" s="22" t="s">
         <v>54</v>
@@ -7048,7 +7085,7 @@
       </c>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A205" s="21"/>
       <c r="B205" s="22" t="s">
         <v>55</v>
@@ -7079,7 +7116,7 @@
       </c>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A206" s="21"/>
       <c r="B206" s="22" t="s">
         <v>56</v>
@@ -7110,7 +7147,7 @@
       </c>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A207" s="21"/>
       <c r="B207" s="22" t="s">
         <v>57</v>
@@ -7141,7 +7178,7 @@
       </c>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A208" s="21"/>
       <c r="B208" s="22" t="s">
         <v>47</v>
@@ -7172,7 +7209,7 @@
       </c>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A209" s="21"/>
       <c r="B209" s="22" t="s">
         <v>48</v>
@@ -7203,7 +7240,7 @@
       </c>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A210" s="21"/>
       <c r="B210" s="22" t="s">
         <v>49</v>
@@ -7234,7 +7271,7 @@
       </c>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A211" s="21"/>
       <c r="B211" s="22" t="s">
         <v>50</v>
@@ -7265,7 +7302,7 @@
       </c>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A212" s="21"/>
       <c r="B212" s="22" t="s">
         <v>51</v>
@@ -7296,7 +7333,7 @@
       </c>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A213" s="21" t="s">
         <v>32</v>
       </c>
@@ -7331,7 +7368,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="214" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A214" s="21"/>
       <c r="B214" s="22" t="s">
         <v>52</v>
@@ -7362,7 +7399,7 @@
       </c>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A215" s="21"/>
       <c r="B215" s="22" t="s">
         <v>53</v>
@@ -7393,7 +7430,7 @@
       </c>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A216" s="21"/>
       <c r="B216" s="22" t="s">
         <v>54</v>
@@ -7424,7 +7461,7 @@
       </c>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A217" s="21"/>
       <c r="B217" s="22" t="s">
         <v>55</v>
@@ -7455,7 +7492,7 @@
       </c>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A218" s="21"/>
       <c r="B218" s="22" t="s">
         <v>56</v>
@@ -7486,7 +7523,7 @@
       </c>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A219" s="21"/>
       <c r="B219" s="22" t="s">
         <v>57</v>
@@ -7517,7 +7554,7 @@
       </c>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A220" s="21"/>
       <c r="B220" s="22" t="s">
         <v>47</v>
@@ -7548,7 +7585,7 @@
       </c>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A221" s="21"/>
       <c r="B221" s="22" t="s">
         <v>48</v>
@@ -7579,7 +7616,7 @@
       </c>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A222" s="21"/>
       <c r="B222" s="22" t="s">
         <v>49</v>
@@ -7610,7 +7647,7 @@
       </c>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A223" s="21"/>
       <c r="B223" s="22" t="s">
         <v>50</v>
@@ -7641,7 +7678,7 @@
       </c>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A224" s="21"/>
       <c r="B224" s="22" t="s">
         <v>51</v>
@@ -7672,7 +7709,7 @@
       </c>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A225" s="21" t="s">
         <v>33</v>
       </c>
@@ -7707,7 +7744,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="226" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A226" s="21"/>
       <c r="B226" s="22" t="s">
         <v>52</v>
@@ -7738,7 +7775,7 @@
       </c>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A227" s="21"/>
       <c r="B227" s="22" t="s">
         <v>53</v>
@@ -7769,7 +7806,7 @@
       </c>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A228" s="21"/>
       <c r="B228" s="22" t="s">
         <v>54</v>
@@ -7800,7 +7837,7 @@
       </c>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A229" s="21"/>
       <c r="B229" s="22" t="s">
         <v>55</v>
@@ -7831,7 +7868,7 @@
       </c>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A230" s="21"/>
       <c r="B230" s="22" t="s">
         <v>56</v>
@@ -7862,7 +7899,7 @@
       </c>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A231" s="21"/>
       <c r="B231" s="22" t="s">
         <v>57</v>
@@ -7893,7 +7930,7 @@
       </c>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A232" s="21"/>
       <c r="B232" s="22" t="s">
         <v>47</v>
@@ -7924,7 +7961,7 @@
       </c>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A233" s="21"/>
       <c r="B233" s="22" t="s">
         <v>48</v>
@@ -7955,7 +7992,7 @@
       </c>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A234" s="21"/>
       <c r="B234" s="22" t="s">
         <v>49</v>
@@ -7986,7 +8023,7 @@
       </c>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A235" s="21"/>
       <c r="B235" s="22" t="s">
         <v>50</v>
@@ -8017,7 +8054,7 @@
       </c>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A236" s="21"/>
       <c r="B236" s="22" t="s">
         <v>51</v>
@@ -8048,7 +8085,7 @@
       </c>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A237" s="21" t="s">
         <v>34</v>
       </c>
@@ -8083,7 +8120,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="238" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A238" s="21"/>
       <c r="B238" s="22" t="s">
         <v>52</v>
@@ -8114,7 +8151,7 @@
       </c>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A239" s="21"/>
       <c r="B239" s="22" t="s">
         <v>53</v>
@@ -8145,7 +8182,7 @@
       </c>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A240" s="21"/>
       <c r="B240" s="22" t="s">
         <v>54</v>
@@ -8176,7 +8213,7 @@
       </c>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A241" s="21"/>
       <c r="B241" s="22" t="s">
         <v>55</v>
@@ -8207,7 +8244,7 @@
       </c>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A242" s="21"/>
       <c r="B242" s="22" t="s">
         <v>56</v>
@@ -8238,7 +8275,7 @@
       </c>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A243" s="21"/>
       <c r="B243" s="22" t="s">
         <v>57</v>
@@ -8269,7 +8306,7 @@
       </c>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A244" s="21"/>
       <c r="B244" s="22" t="s">
         <v>47</v>
@@ -8300,7 +8337,7 @@
       </c>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A245" s="21"/>
       <c r="B245" s="22" t="s">
         <v>48</v>
@@ -8331,7 +8368,7 @@
       </c>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A246" s="21"/>
       <c r="B246" s="22" t="s">
         <v>49</v>
@@ -8362,7 +8399,7 @@
       </c>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A247" s="21"/>
       <c r="B247" s="22" t="s">
         <v>50</v>
@@ -8393,7 +8430,7 @@
       </c>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A248" s="21"/>
       <c r="B248" s="22" t="s">
         <v>51</v>
@@ -8424,7 +8461,7 @@
       </c>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A249" s="21" t="s">
         <v>58</v>
       </c>
@@ -8459,7 +8496,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="250" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A250" s="21"/>
       <c r="B250" s="22" t="s">
         <v>52</v>
@@ -8490,7 +8527,7 @@
       </c>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A251" s="21"/>
       <c r="B251" s="22" t="s">
         <v>53</v>
@@ -8521,7 +8558,7 @@
       </c>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A252" s="21"/>
       <c r="B252" s="22" t="s">
         <v>54</v>
@@ -8552,7 +8589,7 @@
       </c>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A253" s="21"/>
       <c r="B253" s="22" t="s">
         <v>55</v>
@@ -8583,7 +8620,7 @@
       </c>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A254" s="21"/>
       <c r="B254" s="22" t="s">
         <v>56</v>
@@ -8614,7 +8651,7 @@
       </c>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A255" s="21"/>
       <c r="B255" s="22" t="s">
         <v>57</v>
@@ -8645,34 +8682,120 @@
       </c>
       <c r="K255" s="20"/>
     </row>
-    <row r="258" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C258" s="35"/>
-      <c r="D258" s="35"/>
-      <c r="E258" s="35"/>
-      <c r="F258" s="35"/>
-      <c r="G258" s="35"/>
-      <c r="H258" s="35"/>
-      <c r="I258" s="35"/>
-    </row>
-    <row r="259" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C259" s="35"/>
-      <c r="D259" s="35"/>
-      <c r="E259" s="35"/>
-      <c r="F259" s="35"/>
-      <c r="G259" s="35"/>
-      <c r="H259" s="35"/>
-      <c r="I259" s="35"/>
+    <row r="256" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
+      <c r="A256" s="21"/>
+      <c r="B256" s="22"/>
+      <c r="C256" s="37"/>
+      <c r="D256" s="37"/>
+      <c r="E256" s="37"/>
+      <c r="F256" s="37"/>
+      <c r="G256" s="37"/>
+      <c r="H256" s="37"/>
+      <c r="I256" s="37"/>
+      <c r="J256" s="22"/>
+      <c r="K256" s="20"/>
+    </row>
+    <row r="257" spans="2:11" s="3" customFormat="1" ht="12" customHeight="1">
+      <c r="B257" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C257" s="36"/>
+      <c r="D257" s="11"/>
+      <c r="E257" s="11"/>
+      <c r="F257" s="11"/>
+      <c r="G257" s="11"/>
+      <c r="H257" s="11"/>
+      <c r="I257" s="11"/>
+      <c r="J257" s="1"/>
+    </row>
+    <row r="258" spans="2:11" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="B258" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C258" s="40"/>
+      <c r="D258" s="40"/>
+      <c r="E258" s="40"/>
+      <c r="F258" s="40"/>
+      <c r="G258" s="40"/>
+      <c r="H258" s="40"/>
+      <c r="I258" s="40"/>
+      <c r="J258" s="40"/>
+      <c r="K258" s="40"/>
+    </row>
+    <row r="259" spans="2:11" s="3" customFormat="1" ht="28.5" customHeight="1">
+      <c r="B259" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C259" s="40"/>
+      <c r="D259" s="40"/>
+      <c r="E259" s="40"/>
+      <c r="F259" s="40"/>
+      <c r="G259" s="40"/>
+      <c r="H259" s="40"/>
+      <c r="I259" s="40"/>
+      <c r="J259" s="40"/>
+      <c r="K259" s="40"/>
+    </row>
+    <row r="260" spans="2:11" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="B260" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C260" s="40"/>
+      <c r="D260" s="40"/>
+      <c r="E260" s="40"/>
+      <c r="F260" s="40"/>
+      <c r="G260" s="40"/>
+      <c r="H260" s="40"/>
+      <c r="I260" s="40"/>
+      <c r="J260" s="40"/>
+      <c r="K260" s="40"/>
+    </row>
+    <row r="261" spans="2:11" ht="31.5" customHeight="1">
+      <c r="B261" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C261" s="40"/>
+      <c r="D261" s="40"/>
+      <c r="E261" s="40"/>
+      <c r="F261" s="40"/>
+      <c r="G261" s="40"/>
+      <c r="H261" s="40"/>
+      <c r="I261" s="40"/>
+      <c r="J261" s="40"/>
+      <c r="K261" s="40"/>
+    </row>
+    <row r="264" spans="2:11">
+      <c r="C264" s="35"/>
+      <c r="D264" s="35"/>
+      <c r="E264" s="35"/>
+      <c r="F264" s="35"/>
+      <c r="G264" s="35"/>
+      <c r="H264" s="35"/>
+      <c r="I264" s="35"/>
+    </row>
+    <row r="265" spans="2:11">
+      <c r="C265" s="35"/>
+      <c r="D265" s="35"/>
+      <c r="E265" s="35"/>
+      <c r="F265" s="35"/>
+      <c r="G265" s="35"/>
+      <c r="H265" s="35"/>
+      <c r="I265" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="J7:K9"/>
-    <mergeCell ref="A7:B9"/>
-    <mergeCell ref="C7:I7"/>
+  <mergeCells count="12">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B259:K259"/>
+    <mergeCell ref="B260:K260"/>
+    <mergeCell ref="B261:K261"/>
+    <mergeCell ref="J7:K9"/>
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="B258:K258"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -8682,7 +8805,7 @@
     <oddHeader>&amp;L&amp;"Times New Roman,Bold"&amp;11 Народнa ба</oddHeader>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="A33:A161 K33:K161 K10:K24 A10:A24 K25 A25" numberStoredAsText="1"/>
+    <ignoredError sqref="K257 A257:A260 A33:A161 K33:K161 K10:K24 A10:A24 K25 A25" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -8696,81 +8819,81 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q244" sqref="Q244"/>
       <selection activeCell="Q244" sqref="Q244"/>
-      <selection pane="bottomLeft" activeCell="Q244" sqref="Q244"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="8.6999999999999993" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="9.75"/>
   <cols>
-    <col min="1" max="1" width="4.27734375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.71875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.27734375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="4.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.1640625" style="2"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:33" ht="12.75">
       <c r="B1" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="62">
+        <v>64</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="65">
         <v>44796</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="42"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="40"/>
       <c r="H1" s="34"/>
       <c r="I1" s="33"/>
     </row>
-    <row r="3" spans="1:33" ht="11.4" x14ac:dyDescent="0.4">
-      <c r="B3" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="58"/>
-    </row>
-    <row r="4" spans="1:33" ht="12.3" x14ac:dyDescent="0.4">
-      <c r="B4" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-    </row>
-    <row r="5" spans="1:33" ht="11.4" x14ac:dyDescent="0.4">
-      <c r="B5" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-    </row>
-    <row r="6" spans="1:33" ht="10.199999999999999" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" ht="12">
+      <c r="B3" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="62"/>
+    </row>
+    <row r="4" spans="1:33" ht="12.75">
+      <c r="B4" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+    </row>
+    <row r="5" spans="1:33" ht="12">
+      <c r="B5" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+    </row>
+    <row r="6" spans="1:33" ht="11.25">
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:33" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="49"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="44"/>
+    <row r="7" spans="1:33" s="6" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A7" s="47"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="42"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -8794,36 +8917,36 @@
       <c r="AF7" s="5"/>
       <c r="AG7" s="5"/>
     </row>
-    <row r="8" spans="1:33" s="6" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="51"/>
-      <c r="B8" s="52"/>
+    <row r="8" spans="1:33" s="6" customFormat="1" ht="29.45" customHeight="1">
+      <c r="A8" s="49"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="J8" s="45"/>
-      <c r="K8" s="46"/>
-    </row>
-    <row r="9" spans="1:33" s="6" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
+        <v>75</v>
+      </c>
+      <c r="J8" s="43"/>
+      <c r="K8" s="44"/>
+    </row>
+    <row r="9" spans="1:33" s="6" customFormat="1" ht="8.25" customHeight="1">
+      <c r="A9" s="51"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="8">
         <v>1</v>
       </c>
@@ -8845,10 +8968,10 @@
       <c r="I9" s="8">
         <v>7</v>
       </c>
-      <c r="J9" s="47"/>
-      <c r="K9" s="48"/>
-    </row>
-    <row r="10" spans="1:33" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="45"/>
+      <c r="K9" s="46"/>
+    </row>
+    <row r="10" spans="1:33" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="24">
         <v>1999</v>
       </c>
@@ -8877,7 +9000,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="11" spans="1:33" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="24">
         <v>2000</v>
       </c>
@@ -8906,7 +9029,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="12" spans="1:33" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="24">
         <v>2001</v>
       </c>
@@ -8935,7 +9058,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="13" spans="1:33" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="24">
         <v>2002</v>
       </c>
@@ -8964,7 +9087,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="14" spans="1:33" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="24">
         <v>2003</v>
       </c>
@@ -8993,7 +9116,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="15" spans="1:33" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="24">
         <v>2004</v>
       </c>
@@ -9022,7 +9145,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="16" spans="1:33" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="24">
         <v>2005</v>
       </c>
@@ -9051,7 +9174,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="24">
         <v>2006</v>
       </c>
@@ -9080,7 +9203,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="24">
         <v>2007</v>
       </c>
@@ -9109,7 +9232,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="24">
         <v>2008</v>
       </c>
@@ -9138,7 +9261,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="24">
         <v>2009</v>
       </c>
@@ -9167,7 +9290,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="24">
         <v>2010</v>
       </c>
@@ -9196,7 +9319,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="24">
         <v>2011</v>
       </c>
@@ -9225,7 +9348,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="24">
         <v>2012</v>
       </c>
@@ -9254,7 +9377,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="24">
         <v>2013</v>
       </c>
@@ -9283,7 +9406,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="24">
         <v>2014</v>
       </c>
@@ -9312,7 +9435,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="24">
         <v>2015</v>
       </c>
@@ -9341,7 +9464,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="24">
         <v>2016</v>
       </c>
@@ -9370,7 +9493,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="24">
         <v>2017</v>
       </c>
@@ -9399,7 +9522,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="24">
         <v>2018</v>
       </c>
@@ -9428,7 +9551,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="24">
         <v>2019</v>
       </c>
@@ -9457,7 +9580,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A31" s="24">
         <v>2020</v>
       </c>
@@ -9486,7 +9609,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A32" s="24">
         <v>2021</v>
       </c>
@@ -9517,12 +9640,12 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A33" s="24">
         <v>2004</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C33" s="18">
         <v>1678</v>
@@ -9546,15 +9669,15 @@
         <v>118622</v>
       </c>
       <c r="J33" s="22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K33" s="25">
         <v>2004</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B34" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C34" s="18">
         <v>1667</v>
@@ -9578,12 +9701,12 @@
         <v>115720</v>
       </c>
       <c r="J34" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B35" s="22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C35" s="18">
         <v>1690</v>
@@ -9607,12 +9730,12 @@
         <v>119381</v>
       </c>
       <c r="J35" s="22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B36" s="22" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C36" s="18">
         <v>1654</v>
@@ -9636,12 +9759,12 @@
         <v>120923</v>
       </c>
       <c r="J36" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B37" s="22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C37" s="18">
         <v>1602</v>
@@ -9665,12 +9788,12 @@
         <v>123945</v>
       </c>
       <c r="J37" s="22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B38" s="22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C38" s="18">
         <v>1584</v>
@@ -9694,12 +9817,12 @@
         <v>125495</v>
       </c>
       <c r="J38" s="22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B39" s="22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C39" s="18">
         <v>1626</v>
@@ -9723,12 +9846,12 @@
         <v>128367</v>
       </c>
       <c r="J39" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B40" s="22" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C40" s="18">
         <v>1669</v>
@@ -9752,12 +9875,12 @@
         <v>128566</v>
       </c>
       <c r="J40" s="22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B41" s="22" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C41" s="18">
         <v>1980</v>
@@ -9781,12 +9904,12 @@
         <v>134846</v>
       </c>
       <c r="J41" s="22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B42" s="22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C42" s="18">
         <v>2504</v>
@@ -9810,12 +9933,12 @@
         <v>140668</v>
       </c>
       <c r="J42" s="22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B43" s="22" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C43" s="18">
         <v>2687</v>
@@ -9839,12 +9962,12 @@
         <v>140016</v>
       </c>
       <c r="J43" s="22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B44" s="22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C44" s="18">
         <v>2805</v>
@@ -9868,15 +9991,15 @@
         <v>146209</v>
       </c>
       <c r="J44" s="22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A45" s="21">
         <v>2005</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C45" s="18">
         <v>2823</v>
@@ -9900,7 +10023,7 @@
         <v>134698</v>
       </c>
       <c r="J45" s="22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K45" s="20">
         <v>2005</v>
@@ -9908,9 +10031,9 @@
       <c r="L45" s="14"/>
       <c r="M45" s="14"/>
     </row>
-    <row r="46" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B46" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C46" s="18">
         <v>2685</v>
@@ -9934,15 +10057,15 @@
         <v>140976</v>
       </c>
       <c r="J46" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K46" s="17"/>
       <c r="L46" s="14"/>
       <c r="M46" s="14"/>
     </row>
-    <row r="47" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B47" s="22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C47" s="18">
         <v>2528</v>
@@ -9966,15 +10089,15 @@
         <v>143768</v>
       </c>
       <c r="J47" s="22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K47" s="17"/>
       <c r="L47" s="14"/>
       <c r="M47" s="14"/>
     </row>
-    <row r="48" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B48" s="22" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C48" s="18">
         <v>2473</v>
@@ -9998,15 +10121,15 @@
         <v>150580</v>
       </c>
       <c r="J48" s="22" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K48" s="17"/>
       <c r="L48" s="14"/>
       <c r="M48" s="14"/>
     </row>
-    <row r="49" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B49" s="22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C49" s="18">
         <v>2498</v>
@@ -10030,15 +10153,15 @@
         <v>156461</v>
       </c>
       <c r="J49" s="22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K49" s="17"/>
       <c r="L49" s="14"/>
       <c r="M49" s="14"/>
     </row>
-    <row r="50" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B50" s="22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C50" s="18">
         <v>2321</v>
@@ -10062,15 +10185,15 @@
         <v>160351</v>
       </c>
       <c r="J50" s="22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K50" s="17"/>
       <c r="L50" s="14"/>
       <c r="M50" s="14"/>
     </row>
-    <row r="51" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B51" s="22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C51" s="18">
         <v>2389</v>
@@ -10094,15 +10217,15 @@
         <v>166359</v>
       </c>
       <c r="J51" s="22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K51" s="17"/>
       <c r="L51" s="14"/>
       <c r="M51" s="14"/>
     </row>
-    <row r="52" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B52" s="22" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C52" s="18">
         <v>2595</v>
@@ -10126,15 +10249,15 @@
         <v>173011</v>
       </c>
       <c r="J52" s="22" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K52" s="17"/>
       <c r="L52" s="14"/>
       <c r="M52" s="14"/>
     </row>
-    <row r="53" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B53" s="22" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C53" s="18">
         <v>2552</v>
@@ -10158,15 +10281,15 @@
         <v>180043</v>
       </c>
       <c r="J53" s="22" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K53" s="17"/>
       <c r="L53" s="14"/>
       <c r="M53" s="14"/>
     </row>
-    <row r="54" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B54" s="22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C54" s="18">
         <v>2649</v>
@@ -10190,15 +10313,15 @@
         <v>186672</v>
       </c>
       <c r="J54" s="22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K54" s="17"/>
       <c r="L54" s="14"/>
       <c r="M54" s="14"/>
     </row>
-    <row r="55" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B55" s="22" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C55" s="18">
         <v>3105</v>
@@ -10222,15 +10345,15 @@
         <v>182990</v>
       </c>
       <c r="J55" s="22" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K55" s="17"/>
       <c r="L55" s="14"/>
       <c r="M55" s="14"/>
     </row>
-    <row r="56" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B56" s="22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C56" s="18">
         <v>4038</v>
@@ -10254,18 +10377,18 @@
         <v>192180</v>
       </c>
       <c r="J56" s="22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K56" s="17"/>
       <c r="L56" s="14"/>
       <c r="M56" s="14"/>
     </row>
-    <row r="57" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A57" s="21">
         <v>2006</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C57" s="18">
         <v>3452</v>
@@ -10289,7 +10412,7 @@
         <v>179033</v>
       </c>
       <c r="J57" s="22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K57" s="20">
         <v>2006</v>
@@ -10297,9 +10420,9 @@
       <c r="L57" s="14"/>
       <c r="M57" s="14"/>
     </row>
-    <row r="58" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B58" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C58" s="18">
         <v>6106</v>
@@ -10323,15 +10446,15 @@
         <v>186471</v>
       </c>
       <c r="J58" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K58" s="17"/>
       <c r="L58" s="14"/>
       <c r="M58" s="14"/>
     </row>
-    <row r="59" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B59" s="22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C59" s="18">
         <v>5316</v>
@@ -10355,15 +10478,15 @@
         <v>188611</v>
       </c>
       <c r="J59" s="22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K59" s="17"/>
       <c r="L59" s="14"/>
       <c r="M59" s="14"/>
     </row>
-    <row r="60" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B60" s="22" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C60" s="18">
         <v>5204</v>
@@ -10387,15 +10510,15 @@
         <v>197122</v>
       </c>
       <c r="J60" s="22" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K60" s="17"/>
       <c r="L60" s="14"/>
       <c r="M60" s="14"/>
     </row>
-    <row r="61" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B61" s="22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C61" s="18">
         <v>5869</v>
@@ -10419,15 +10542,15 @@
         <v>205071</v>
       </c>
       <c r="J61" s="22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K61" s="17"/>
       <c r="L61" s="14"/>
       <c r="M61" s="14"/>
     </row>
-    <row r="62" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B62" s="22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C62" s="18">
         <v>6143</v>
@@ -10451,15 +10574,15 @@
         <v>206917</v>
       </c>
       <c r="J62" s="22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K62" s="17"/>
       <c r="L62" s="14"/>
       <c r="M62" s="14"/>
     </row>
-    <row r="63" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B63" s="22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C63" s="18">
         <v>5317</v>
@@ -10483,15 +10606,15 @@
         <v>208092</v>
       </c>
       <c r="J63" s="22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K63" s="17"/>
       <c r="L63" s="14"/>
       <c r="M63" s="14"/>
     </row>
-    <row r="64" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B64" s="22" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C64" s="18">
         <v>6497</v>
@@ -10515,15 +10638,15 @@
         <v>218444</v>
       </c>
       <c r="J64" s="22" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K64" s="17"/>
       <c r="L64" s="14"/>
       <c r="M64" s="14"/>
     </row>
-    <row r="65" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B65" s="22" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C65" s="18">
         <v>7566</v>
@@ -10547,15 +10670,15 @@
         <v>230257</v>
       </c>
       <c r="J65" s="22" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K65" s="17"/>
       <c r="L65" s="14"/>
       <c r="M65" s="14"/>
     </row>
-    <row r="66" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B66" s="22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C66" s="18">
         <v>8407</v>
@@ -10579,15 +10702,15 @@
         <v>231936</v>
       </c>
       <c r="J66" s="22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K66" s="17"/>
       <c r="L66" s="14"/>
       <c r="M66" s="14"/>
     </row>
-    <row r="67" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B67" s="22" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C67" s="18">
         <v>7851</v>
@@ -10611,15 +10734,15 @@
         <v>238353</v>
       </c>
       <c r="J67" s="22" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K67" s="17"/>
       <c r="L67" s="14"/>
       <c r="M67" s="14"/>
     </row>
-    <row r="68" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B68" s="22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C68" s="18">
         <v>10388</v>
@@ -10643,18 +10766,18 @@
         <v>278966</v>
       </c>
       <c r="J68" s="22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K68" s="17"/>
       <c r="L68" s="14"/>
       <c r="M68" s="14"/>
     </row>
-    <row r="69" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A69" s="21">
         <v>2007</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C69" s="18">
         <v>10269</v>
@@ -10678,7 +10801,7 @@
         <v>253117</v>
       </c>
       <c r="J69" s="22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K69" s="20">
         <v>2007</v>
@@ -10686,9 +10809,9 @@
       <c r="L69" s="14"/>
       <c r="M69" s="14"/>
     </row>
-    <row r="70" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B70" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C70" s="18">
         <v>10338</v>
@@ -10712,15 +10835,15 @@
         <v>263825</v>
       </c>
       <c r="J70" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K70" s="17"/>
       <c r="L70" s="14"/>
       <c r="M70" s="14"/>
     </row>
-    <row r="71" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B71" s="22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C71" s="18">
         <v>10479</v>
@@ -10744,15 +10867,15 @@
         <v>275449</v>
       </c>
       <c r="J71" s="22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K71" s="17"/>
       <c r="L71" s="14"/>
       <c r="M71" s="14"/>
     </row>
-    <row r="72" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B72" s="22" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C72" s="18">
         <v>11359</v>
@@ -10776,15 +10899,15 @@
         <v>278699</v>
       </c>
       <c r="J72" s="22" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K72" s="17"/>
       <c r="L72" s="14"/>
       <c r="M72" s="14"/>
     </row>
-    <row r="73" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B73" s="22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C73" s="18">
         <v>11398</v>
@@ -10808,15 +10931,15 @@
         <v>288743</v>
       </c>
       <c r="J73" s="22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K73" s="17"/>
       <c r="L73" s="14"/>
       <c r="M73" s="14"/>
     </row>
-    <row r="74" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B74" s="22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C74" s="18">
         <v>10213</v>
@@ -10840,15 +10963,15 @@
         <v>288329</v>
       </c>
       <c r="J74" s="22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K74" s="17"/>
       <c r="L74" s="14"/>
       <c r="M74" s="14"/>
     </row>
-    <row r="75" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B75" s="22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C75" s="18">
         <v>11373</v>
@@ -10872,15 +10995,15 @@
         <v>304402</v>
       </c>
       <c r="J75" s="22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K75" s="17"/>
       <c r="L75" s="14"/>
       <c r="M75" s="14"/>
     </row>
-    <row r="76" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B76" s="22" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C76" s="18">
         <v>12378</v>
@@ -10904,15 +11027,15 @@
         <v>323067</v>
       </c>
       <c r="J76" s="22" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K76" s="17"/>
       <c r="L76" s="14"/>
       <c r="M76" s="14"/>
     </row>
-    <row r="77" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B77" s="22" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C77" s="18">
         <v>12654</v>
@@ -10936,13 +11059,13 @@
         <v>326341</v>
       </c>
       <c r="J77" s="22" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K77" s="10"/>
     </row>
-    <row r="78" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B78" s="22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C78" s="18">
         <v>12704</v>
@@ -10966,13 +11089,13 @@
         <v>329040</v>
       </c>
       <c r="J78" s="22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K78" s="10"/>
     </row>
-    <row r="79" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B79" s="22" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C79" s="18">
         <v>13159</v>
@@ -10996,13 +11119,13 @@
         <v>339757</v>
       </c>
       <c r="J79" s="22" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K79" s="10"/>
     </row>
-    <row r="80" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B80" s="22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C80" s="18">
         <v>13745</v>
@@ -11026,16 +11149,16 @@
         <v>390485</v>
       </c>
       <c r="J80" s="22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K80" s="10"/>
     </row>
-    <row r="81" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A81" s="24">
         <v>2008</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C81" s="18">
         <v>14862</v>
@@ -11059,15 +11182,15 @@
         <v>381497</v>
       </c>
       <c r="J81" s="22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K81" s="25">
         <v>2008</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B82" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C82" s="18">
         <v>17193</v>
@@ -11091,13 +11214,13 @@
         <v>380019</v>
       </c>
       <c r="J82" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K82" s="10"/>
     </row>
-    <row r="83" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B83" s="22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C83" s="18">
         <v>14414</v>
@@ -11121,13 +11244,13 @@
         <v>367648</v>
       </c>
       <c r="J83" s="22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K83" s="10"/>
     </row>
-    <row r="84" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B84" s="22" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C84" s="18">
         <v>15069</v>
@@ -11151,13 +11274,13 @@
         <v>368965</v>
       </c>
       <c r="J84" s="22" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K84" s="10"/>
     </row>
-    <row r="85" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B85" s="22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C85" s="18">
         <v>16941</v>
@@ -11181,13 +11304,13 @@
         <v>379219</v>
       </c>
       <c r="J85" s="22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K85" s="10"/>
     </row>
-    <row r="86" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B86" s="22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C86" s="18">
         <v>17706</v>
@@ -11211,13 +11334,13 @@
         <v>365834</v>
       </c>
       <c r="J86" s="22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K86" s="10"/>
     </row>
-    <row r="87" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B87" s="22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C87" s="18">
         <v>27949</v>
@@ -11241,13 +11364,13 @@
         <v>355393</v>
       </c>
       <c r="J87" s="22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K87" s="10"/>
     </row>
-    <row r="88" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B88" s="22" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C88" s="18">
         <v>31980</v>
@@ -11271,13 +11394,13 @@
         <v>374647</v>
       </c>
       <c r="J88" s="22" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K88" s="10"/>
     </row>
-    <row r="89" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B89" s="22" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C89" s="18">
         <v>33474</v>
@@ -11301,13 +11424,13 @@
         <v>380015</v>
       </c>
       <c r="J89" s="22" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K89" s="10"/>
     </row>
-    <row r="90" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B90" s="22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C90" s="18">
         <v>35278</v>
@@ -11331,13 +11454,13 @@
         <v>382895</v>
       </c>
       <c r="J90" s="22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K90" s="10"/>
     </row>
-    <row r="91" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B91" s="22" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C91" s="18">
         <v>36167</v>
@@ -11361,13 +11484,13 @@
         <v>383195</v>
       </c>
       <c r="J91" s="22" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K91" s="10"/>
     </row>
-    <row r="92" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B92" s="22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C92" s="18">
         <v>42881</v>
@@ -11391,16 +11514,16 @@
         <v>395025</v>
       </c>
       <c r="J92" s="22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K92" s="10"/>
     </row>
-    <row r="93" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A93" s="24">
         <v>2009</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C93" s="18">
         <v>43352</v>
@@ -11424,15 +11547,15 @@
         <v>368397</v>
       </c>
       <c r="J93" s="22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K93" s="25">
         <v>2009</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B94" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C94" s="18">
         <v>43313</v>
@@ -11456,13 +11579,13 @@
         <v>387788</v>
       </c>
       <c r="J94" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K94" s="10"/>
     </row>
-    <row r="95" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B95" s="22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C95" s="18">
         <v>41293</v>
@@ -11486,13 +11609,13 @@
         <v>377863</v>
       </c>
       <c r="J95" s="22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K95" s="10"/>
     </row>
-    <row r="96" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B96" s="22" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C96" s="18">
         <v>42883</v>
@@ -11516,13 +11639,13 @@
         <v>388243</v>
       </c>
       <c r="J96" s="22" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K96" s="10"/>
     </row>
-    <row r="97" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B97" s="22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C97" s="18">
         <v>41931</v>
@@ -11546,13 +11669,13 @@
         <v>395172</v>
       </c>
       <c r="J97" s="22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K97" s="10"/>
     </row>
-    <row r="98" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B98" s="22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C98" s="18">
         <v>41270</v>
@@ -11576,13 +11699,13 @@
         <v>400874</v>
       </c>
       <c r="J98" s="22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K98" s="10"/>
     </row>
-    <row r="99" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B99" s="22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C99" s="18">
         <v>42027</v>
@@ -11606,13 +11729,13 @@
         <v>408620</v>
       </c>
       <c r="J99" s="22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K99" s="10"/>
     </row>
-    <row r="100" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B100" s="22" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C100" s="18">
         <v>44027</v>
@@ -11636,13 +11759,13 @@
         <v>419267</v>
       </c>
       <c r="J100" s="22" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K100" s="10"/>
     </row>
-    <row r="101" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B101" s="22" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C101" s="18">
         <v>44421</v>
@@ -11666,13 +11789,13 @@
         <v>416996</v>
       </c>
       <c r="J101" s="22" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K101" s="10"/>
     </row>
-    <row r="102" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B102" s="22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C102" s="18">
         <v>49643</v>
@@ -11696,13 +11819,13 @@
         <v>418045</v>
       </c>
       <c r="J102" s="22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K102" s="10"/>
     </row>
-    <row r="103" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B103" s="22" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C103" s="18">
         <v>51794</v>
@@ -11726,13 +11849,13 @@
         <v>421014</v>
       </c>
       <c r="J103" s="22" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K103" s="10"/>
     </row>
-    <row r="104" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B104" s="22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C104" s="15">
         <v>39252</v>
@@ -11756,16 +11879,16 @@
         <v>436768</v>
       </c>
       <c r="J104" s="22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K104" s="10"/>
     </row>
-    <row r="105" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A105" s="24">
         <v>2010</v>
       </c>
       <c r="B105" s="22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C105" s="15">
         <v>39454</v>
@@ -11789,15 +11912,15 @@
         <v>416179</v>
       </c>
       <c r="J105" s="22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K105" s="25">
         <v>2010</v>
       </c>
     </row>
-    <row r="106" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B106" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C106" s="15">
         <v>40504</v>
@@ -11821,13 +11944,13 @@
         <v>409728</v>
       </c>
       <c r="J106" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K106" s="10"/>
     </row>
-    <row r="107" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B107" s="22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C107" s="15">
         <v>41719</v>
@@ -11851,13 +11974,13 @@
         <v>403722</v>
       </c>
       <c r="J107" s="22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K107" s="10"/>
     </row>
-    <row r="108" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B108" s="22" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C108" s="15">
         <v>42554</v>
@@ -11881,13 +12004,13 @@
         <v>410771</v>
       </c>
       <c r="J108" s="22" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K108" s="10"/>
     </row>
-    <row r="109" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B109" s="22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C109" s="15">
         <v>43214</v>
@@ -11911,13 +12034,13 @@
         <v>419367</v>
       </c>
       <c r="J109" s="22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K109" s="10"/>
     </row>
-    <row r="110" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B110" s="22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C110" s="15">
         <v>41190</v>
@@ -11941,13 +12064,13 @@
         <v>417948</v>
       </c>
       <c r="J110" s="22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K110" s="10"/>
     </row>
-    <row r="111" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B111" s="22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C111" s="15">
         <v>41429</v>
@@ -11971,13 +12094,13 @@
         <v>430847</v>
       </c>
       <c r="J111" s="22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K111" s="10"/>
     </row>
-    <row r="112" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B112" s="22" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C112" s="15">
         <v>32305</v>
@@ -12001,13 +12124,13 @@
         <v>396711</v>
       </c>
       <c r="J112" s="22" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K112" s="10"/>
     </row>
-    <row r="113" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B113" s="22" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C113" s="15">
         <v>33305</v>
@@ -12031,13 +12154,13 @@
         <v>402995</v>
       </c>
       <c r="J113" s="22" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K113" s="10"/>
     </row>
-    <row r="114" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B114" s="22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C114" s="15">
         <v>35090</v>
@@ -12061,13 +12184,13 @@
         <v>412160</v>
       </c>
       <c r="J114" s="22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K114" s="10"/>
     </row>
-    <row r="115" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B115" s="22" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C115" s="15">
         <v>38183</v>
@@ -12091,13 +12214,13 @@
         <v>406367</v>
       </c>
       <c r="J115" s="22" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K115" s="10"/>
     </row>
-    <row r="116" spans="1:11" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" s="3" customFormat="1" ht="11.25" customHeight="1">
       <c r="B116" s="22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C116" s="15">
         <v>27981</v>
@@ -12121,16 +12244,16 @@
         <v>410495</v>
       </c>
       <c r="J116" s="22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K116" s="10"/>
     </row>
-    <row r="117" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A117" s="24">
         <v>2011</v>
       </c>
       <c r="B117" s="22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C117" s="15">
         <v>27610</v>
@@ -12154,15 +12277,15 @@
         <v>375083</v>
       </c>
       <c r="J117" s="22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K117" s="25">
         <v>2011</v>
       </c>
     </row>
-    <row r="118" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B118" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C118" s="15">
         <v>25077</v>
@@ -12186,13 +12309,13 @@
         <v>378554</v>
       </c>
       <c r="J118" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K118" s="10"/>
     </row>
-    <row r="119" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B119" s="22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C119" s="15">
         <v>27268</v>
@@ -12216,13 +12339,13 @@
         <v>382714</v>
       </c>
       <c r="J119" s="22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K119" s="10"/>
     </row>
-    <row r="120" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B120" s="22" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C120" s="15">
         <v>27186</v>
@@ -12246,13 +12369,13 @@
         <v>387007</v>
       </c>
       <c r="J120" s="22" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K120" s="10"/>
     </row>
-    <row r="121" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B121" s="22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C121" s="15">
         <v>30090</v>
@@ -12276,13 +12399,13 @@
         <v>390374</v>
       </c>
       <c r="J121" s="22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K121" s="10"/>
     </row>
-    <row r="122" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B122" s="22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C122" s="15">
         <v>28554</v>
@@ -12306,13 +12429,13 @@
         <v>401970</v>
       </c>
       <c r="J122" s="22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K122" s="10"/>
     </row>
-    <row r="123" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B123" s="22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C123" s="15">
         <v>29820</v>
@@ -12336,13 +12459,13 @@
         <v>410500</v>
       </c>
       <c r="J123" s="22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K123" s="10"/>
     </row>
-    <row r="124" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B124" s="22" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C124" s="15">
         <v>33744</v>
@@ -12366,13 +12489,13 @@
         <v>429364</v>
       </c>
       <c r="J124" s="22" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K124" s="10"/>
     </row>
-    <row r="125" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B125" s="22" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C125" s="15">
         <v>32244</v>
@@ -12396,13 +12519,13 @@
         <v>433841</v>
       </c>
       <c r="J125" s="22" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K125" s="10"/>
     </row>
-    <row r="126" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B126" s="22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C126" s="15">
         <v>36530</v>
@@ -12426,13 +12549,13 @@
         <v>438015</v>
       </c>
       <c r="J126" s="22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K126" s="10"/>
     </row>
-    <row r="127" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B127" s="22" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C127" s="15">
         <v>32887</v>
@@ -12456,13 +12579,13 @@
         <v>452178</v>
       </c>
       <c r="J127" s="22" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K127" s="10"/>
     </row>
-    <row r="128" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B128" s="22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C128" s="15">
         <v>34435</v>
@@ -12486,16 +12609,16 @@
         <v>487914</v>
       </c>
       <c r="J128" s="22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K128" s="10"/>
     </row>
-    <row r="129" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A129" s="24">
         <v>2012</v>
       </c>
       <c r="B129" s="22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C129" s="15">
         <v>34331</v>
@@ -12519,15 +12642,15 @@
         <v>463687</v>
       </c>
       <c r="J129" s="22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K129" s="25">
         <v>2012</v>
       </c>
     </row>
-    <row r="130" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B130" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C130" s="15">
         <v>36999</v>
@@ -12551,13 +12674,13 @@
         <v>471140</v>
       </c>
       <c r="J130" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K130" s="10"/>
     </row>
-    <row r="131" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B131" s="22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C131" s="15">
         <v>30744</v>
@@ -12581,13 +12704,13 @@
         <v>445013</v>
       </c>
       <c r="J131" s="22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K131" s="10"/>
     </row>
-    <row r="132" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B132" s="22" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C132" s="15">
         <v>28454</v>
@@ -12611,13 +12734,13 @@
         <v>456794</v>
       </c>
       <c r="J132" s="22" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K132" s="10"/>
     </row>
-    <row r="133" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B133" s="22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C133" s="15">
         <v>28428</v>
@@ -12641,13 +12764,13 @@
         <v>442021</v>
       </c>
       <c r="J133" s="22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K133" s="10"/>
     </row>
-    <row r="134" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B134" s="22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C134" s="15">
         <v>29354</v>
@@ -12671,13 +12794,13 @@
         <v>444606</v>
       </c>
       <c r="J134" s="22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K134" s="10"/>
     </row>
-    <row r="135" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B135" s="22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C135" s="15">
         <v>27887</v>
@@ -12701,13 +12824,13 @@
         <v>443525</v>
       </c>
       <c r="J135" s="22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K135" s="10"/>
     </row>
-    <row r="136" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B136" s="22" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C136" s="15">
         <v>29034</v>
@@ -12731,13 +12854,13 @@
         <v>450040</v>
       </c>
       <c r="J136" s="22" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K136" s="10"/>
     </row>
-    <row r="137" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B137" s="22" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C137" s="15">
         <v>30574</v>
@@ -12761,13 +12884,13 @@
         <v>467426</v>
       </c>
       <c r="J137" s="22" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K137" s="10"/>
     </row>
-    <row r="138" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B138" s="22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C138" s="15">
         <v>31063</v>
@@ -12791,13 +12914,13 @@
         <v>452791</v>
       </c>
       <c r="J138" s="22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K138" s="10"/>
     </row>
-    <row r="139" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B139" s="22" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C139" s="15">
         <v>32021</v>
@@ -12821,13 +12944,13 @@
         <v>458944</v>
       </c>
       <c r="J139" s="22" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K139" s="10"/>
     </row>
-    <row r="140" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B140" s="22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C140" s="15">
         <v>33426</v>
@@ -12851,16 +12974,16 @@
         <v>480717</v>
       </c>
       <c r="J140" s="22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K140" s="10"/>
     </row>
-    <row r="141" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A141" s="24">
         <v>2013</v>
       </c>
       <c r="B141" s="22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C141" s="15">
         <v>36178</v>
@@ -12884,15 +13007,15 @@
         <v>448696</v>
       </c>
       <c r="J141" s="22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K141" s="25">
         <v>2013</v>
       </c>
     </row>
-    <row r="142" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B142" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C142" s="15">
         <v>34433</v>
@@ -12916,13 +13039,13 @@
         <v>466145</v>
       </c>
       <c r="J142" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K142" s="10"/>
     </row>
-    <row r="143" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B143" s="22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C143" s="15">
         <v>35473</v>
@@ -12946,13 +13069,13 @@
         <v>478837</v>
       </c>
       <c r="J143" s="22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K143" s="10"/>
     </row>
-    <row r="144" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B144" s="22" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C144" s="15">
         <v>30796</v>
@@ -12976,13 +13099,13 @@
         <v>478859</v>
       </c>
       <c r="J144" s="22" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K144" s="10"/>
     </row>
-    <row r="145" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B145" s="22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C145" s="15">
         <v>29369</v>
@@ -13006,13 +13129,13 @@
         <v>493338</v>
       </c>
       <c r="J145" s="22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K145" s="10"/>
     </row>
-    <row r="146" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B146" s="22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C146" s="15">
         <v>29314</v>
@@ -13036,13 +13159,13 @@
         <v>492493</v>
       </c>
       <c r="J146" s="22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K146" s="10"/>
     </row>
-    <row r="147" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B147" s="22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C147" s="15">
         <v>29592</v>
@@ -13066,13 +13189,13 @@
         <v>493714</v>
       </c>
       <c r="J147" s="22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K147" s="10"/>
     </row>
-    <row r="148" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B148" s="22" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C148" s="15">
         <v>30666</v>
@@ -13096,13 +13219,13 @@
         <v>517437</v>
       </c>
       <c r="J148" s="22" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K148" s="10"/>
     </row>
-    <row r="149" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B149" s="22" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C149" s="15">
         <v>30916</v>
@@ -13126,13 +13249,13 @@
         <v>519467</v>
       </c>
       <c r="J149" s="22" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K149" s="10"/>
     </row>
-    <row r="150" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B150" s="22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C150" s="15">
         <v>29512</v>
@@ -13156,13 +13279,13 @@
         <v>518009</v>
       </c>
       <c r="J150" s="22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K150" s="10"/>
     </row>
-    <row r="151" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B151" s="22" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C151" s="15">
         <v>29288</v>
@@ -13186,13 +13309,13 @@
         <v>535434</v>
       </c>
       <c r="J151" s="22" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K151" s="10"/>
     </row>
-    <row r="152" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B152" s="22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C152" s="15">
         <v>36249</v>
@@ -13216,16 +13339,16 @@
         <v>547566</v>
       </c>
       <c r="J152" s="22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K152" s="10"/>
     </row>
-    <row r="153" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A153" s="24">
         <v>2014</v>
       </c>
       <c r="B153" s="22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C153" s="15">
         <v>31115</v>
@@ -13249,16 +13372,16 @@
         <v>508278</v>
       </c>
       <c r="J153" s="22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K153" s="25">
         <v>2014</v>
       </c>
     </row>
-    <row r="154" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A154" s="24"/>
       <c r="B154" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C154" s="15">
         <v>30486</v>
@@ -13282,14 +13405,14 @@
         <v>506623</v>
       </c>
       <c r="J154" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K154" s="25"/>
     </row>
-    <row r="155" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A155" s="24"/>
       <c r="B155" s="22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C155" s="15">
         <v>29996</v>
@@ -13313,14 +13436,14 @@
         <v>516381</v>
       </c>
       <c r="J155" s="22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K155" s="25"/>
     </row>
-    <row r="156" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A156" s="24"/>
       <c r="B156" s="22" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C156" s="15">
         <v>29379</v>
@@ -13344,14 +13467,14 @@
         <v>522252</v>
       </c>
       <c r="J156" s="22" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K156" s="25"/>
     </row>
-    <row r="157" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A157" s="24"/>
       <c r="B157" s="22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C157" s="15">
         <v>31154</v>
@@ -13375,14 +13498,14 @@
         <v>538543</v>
       </c>
       <c r="J157" s="22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K157" s="25"/>
     </row>
-    <row r="158" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A158" s="24"/>
       <c r="B158" s="22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C158" s="15">
         <v>32981</v>
@@ -13406,14 +13529,14 @@
         <v>555259</v>
       </c>
       <c r="J158" s="22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K158" s="25"/>
     </row>
-    <row r="159" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A159" s="24"/>
       <c r="B159" s="22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C159" s="15">
         <v>32211</v>
@@ -13437,14 +13560,14 @@
         <v>576825</v>
       </c>
       <c r="J159" s="22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K159" s="25"/>
     </row>
-    <row r="160" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A160" s="24"/>
       <c r="B160" s="22" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C160" s="15">
         <v>34497</v>
@@ -13468,14 +13591,14 @@
         <v>593050</v>
       </c>
       <c r="J160" s="22" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K160" s="25"/>
     </row>
-    <row r="161" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A161" s="24"/>
       <c r="B161" s="22" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C161" s="15">
         <v>31588</v>
@@ -13499,14 +13622,14 @@
         <v>587121</v>
       </c>
       <c r="J161" s="22" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K161" s="25"/>
     </row>
-    <row r="162" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A162" s="24"/>
       <c r="B162" s="22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C162" s="15">
         <v>33111</v>
@@ -13530,14 +13653,14 @@
         <v>592705</v>
       </c>
       <c r="J162" s="22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K162" s="25"/>
     </row>
-    <row r="163" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A163" s="24"/>
       <c r="B163" s="22" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C163" s="16">
         <v>34139</v>
@@ -13561,14 +13684,14 @@
         <v>591845</v>
       </c>
       <c r="J163" s="22" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K163" s="25"/>
     </row>
-    <row r="164" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A164" s="24"/>
       <c r="B164" s="22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C164" s="16">
         <v>27597</v>
@@ -13592,16 +13715,16 @@
         <v>613888</v>
       </c>
       <c r="J164" s="22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K164" s="25"/>
     </row>
-    <row r="165" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A165" s="24">
         <v>2015</v>
       </c>
       <c r="B165" s="22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C165" s="16">
         <v>27401</v>
@@ -13625,16 +13748,16 @@
         <v>575957</v>
       </c>
       <c r="J165" s="22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K165" s="25">
         <v>2015</v>
       </c>
     </row>
-    <row r="166" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A166" s="24"/>
       <c r="B166" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C166" s="16">
         <v>24092</v>
@@ -13658,14 +13781,14 @@
         <v>567556</v>
       </c>
       <c r="J166" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K166" s="25"/>
     </row>
-    <row r="167" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A167" s="24"/>
       <c r="B167" s="22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C167" s="15">
         <v>25676</v>
@@ -13689,14 +13812,14 @@
         <v>567397</v>
       </c>
       <c r="J167" s="22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K167" s="25"/>
     </row>
-    <row r="168" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A168" s="24"/>
       <c r="B168" s="22" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C168" s="15">
         <v>28930</v>
@@ -13720,14 +13843,14 @@
         <v>570400</v>
       </c>
       <c r="J168" s="22" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K168" s="25"/>
     </row>
-    <row r="169" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A169" s="24"/>
       <c r="B169" s="22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C169" s="15">
         <v>28930</v>
@@ -13751,14 +13874,14 @@
         <v>572896</v>
       </c>
       <c r="J169" s="22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K169" s="25"/>
     </row>
-    <row r="170" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A170" s="24"/>
       <c r="B170" s="22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C170" s="15">
         <v>24441</v>
@@ -13782,14 +13905,14 @@
         <v>594887</v>
       </c>
       <c r="J170" s="22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K170" s="25"/>
     </row>
-    <row r="171" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A171" s="24"/>
       <c r="B171" s="22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C171" s="15">
         <v>23816</v>
@@ -13813,14 +13936,14 @@
         <v>618356</v>
       </c>
       <c r="J171" s="22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K171" s="25"/>
     </row>
-    <row r="172" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A172" s="24"/>
       <c r="B172" s="22" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C172" s="15">
         <v>23567</v>
@@ -13844,14 +13967,14 @@
         <v>621158</v>
       </c>
       <c r="J172" s="22" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K172" s="25"/>
     </row>
-    <row r="173" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A173" s="24"/>
       <c r="B173" s="22" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C173" s="15">
         <v>28255</v>
@@ -13875,14 +13998,14 @@
         <v>632187</v>
       </c>
       <c r="J173" s="22" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K173" s="25"/>
     </row>
-    <row r="174" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A174" s="24"/>
       <c r="B174" s="22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C174" s="15">
         <v>26983</v>
@@ -13906,14 +14029,14 @@
         <v>637410</v>
       </c>
       <c r="J174" s="22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K174" s="25"/>
     </row>
-    <row r="175" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A175" s="24"/>
       <c r="B175" s="22" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C175" s="15">
         <v>30461</v>
@@ -13937,14 +14060,14 @@
         <v>647717</v>
       </c>
       <c r="J175" s="22" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K175" s="25"/>
     </row>
-    <row r="176" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A176" s="24"/>
       <c r="B176" s="22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C176" s="15">
         <v>31017</v>
@@ -13968,16 +14091,16 @@
         <v>702476</v>
       </c>
       <c r="J176" s="22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K176" s="25"/>
     </row>
-    <row r="177" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A177" s="24">
         <v>2016</v>
       </c>
       <c r="B177" s="22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C177" s="16">
         <v>30858</v>
@@ -14001,16 +14124,16 @@
         <v>645012</v>
       </c>
       <c r="J177" s="22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K177" s="25">
         <v>2016</v>
       </c>
     </row>
-    <row r="178" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A178" s="24"/>
       <c r="B178" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C178" s="16">
         <v>31218</v>
@@ -14034,14 +14157,14 @@
         <v>646726</v>
       </c>
       <c r="J178" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K178" s="25"/>
     </row>
-    <row r="179" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A179" s="24"/>
       <c r="B179" s="22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C179" s="15">
         <v>27843</v>
@@ -14065,14 +14188,14 @@
         <v>645412</v>
       </c>
       <c r="J179" s="22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K179" s="25"/>
     </row>
-    <row r="180" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A180" s="24"/>
       <c r="B180" s="22" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C180" s="15">
         <v>28275</v>
@@ -14096,14 +14219,14 @@
         <v>657657</v>
       </c>
       <c r="J180" s="22" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K180" s="25"/>
     </row>
-    <row r="181" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A181" s="24"/>
       <c r="B181" s="22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C181" s="15">
         <v>29310</v>
@@ -14127,14 +14250,14 @@
         <v>672205</v>
       </c>
       <c r="J181" s="22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K181" s="25"/>
     </row>
-    <row r="182" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A182" s="24"/>
       <c r="B182" s="22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C182" s="15">
         <v>33613</v>
@@ -14158,14 +14281,14 @@
         <v>685006</v>
       </c>
       <c r="J182" s="22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K182" s="25"/>
     </row>
-    <row r="183" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A183" s="24"/>
       <c r="B183" s="22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C183" s="15">
         <v>30836</v>
@@ -14189,14 +14312,14 @@
         <v>698157</v>
       </c>
       <c r="J183" s="22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K183" s="25"/>
     </row>
-    <row r="184" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A184" s="24"/>
       <c r="B184" s="22" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C184" s="15">
         <v>31604</v>
@@ -14220,14 +14343,14 @@
         <v>709055</v>
       </c>
       <c r="J184" s="22" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K184" s="25"/>
     </row>
-    <row r="185" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A185" s="24"/>
       <c r="B185" s="22" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C185" s="15">
         <v>30579.5</v>
@@ -14251,14 +14374,14 @@
         <v>727102.2</v>
       </c>
       <c r="J185" s="22" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K185" s="25"/>
     </row>
-    <row r="186" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A186" s="24"/>
       <c r="B186" s="22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C186" s="15">
         <v>27363.4</v>
@@ -14282,14 +14405,14 @@
         <v>725115.6</v>
       </c>
       <c r="J186" s="22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K186" s="25"/>
     </row>
-    <row r="187" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A187" s="24"/>
       <c r="B187" s="22" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C187" s="15">
         <v>28523.3</v>
@@ -14313,14 +14436,14 @@
         <v>743176.7</v>
       </c>
       <c r="J187" s="22" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K187" s="25"/>
     </row>
-    <row r="188" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A188" s="24"/>
       <c r="B188" s="22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C188" s="15">
         <v>29721.9</v>
@@ -14344,16 +14467,16 @@
         <v>808309.1</v>
       </c>
       <c r="J188" s="22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K188" s="25"/>
     </row>
-    <row r="189" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A189" s="24">
         <v>2017</v>
       </c>
       <c r="B189" s="22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C189" s="15">
         <v>28533.5</v>
@@ -14377,16 +14500,16 @@
         <v>759512.8</v>
       </c>
       <c r="J189" s="22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K189" s="25">
         <v>2017</v>
       </c>
     </row>
-    <row r="190" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A190" s="24"/>
       <c r="B190" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C190" s="16">
         <v>29818.3</v>
@@ -14410,14 +14533,14 @@
         <v>758207.5</v>
       </c>
       <c r="J190" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K190" s="25"/>
     </row>
-    <row r="191" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A191" s="24"/>
       <c r="B191" s="22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C191" s="15">
         <v>29927.3</v>
@@ -14441,14 +14564,14 @@
         <v>772705.3</v>
       </c>
       <c r="J191" s="22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K191" s="25"/>
     </row>
-    <row r="192" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A192" s="24"/>
       <c r="B192" s="22" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C192" s="15">
         <v>31561.200000000001</v>
@@ -14472,14 +14595,14 @@
         <v>760743.7</v>
       </c>
       <c r="J192" s="22" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K192" s="25"/>
     </row>
-    <row r="193" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A193" s="24"/>
       <c r="B193" s="22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C193" s="15">
         <v>29645.9</v>
@@ -14503,14 +14626,14 @@
         <v>775896.8</v>
       </c>
       <c r="J193" s="22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K193" s="25"/>
     </row>
-    <row r="194" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A194" s="24"/>
       <c r="B194" s="22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C194" s="15">
         <v>32035</v>
@@ -14534,14 +14657,14 @@
         <v>785216</v>
       </c>
       <c r="J194" s="22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K194" s="25"/>
     </row>
-    <row r="195" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A195" s="24"/>
       <c r="B195" s="22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C195" s="15">
         <v>28719.4</v>
@@ -14565,14 +14688,14 @@
         <v>787339.6</v>
       </c>
       <c r="J195" s="22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K195" s="25"/>
     </row>
-    <row r="196" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A196" s="24"/>
       <c r="B196" s="22" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C196" s="15">
         <v>30891.8</v>
@@ -14596,14 +14719,14 @@
         <v>802319.8</v>
       </c>
       <c r="J196" s="22" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K196" s="25"/>
     </row>
-    <row r="197" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A197" s="24"/>
       <c r="B197" s="22" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C197" s="15">
         <v>29831.8</v>
@@ -14627,14 +14750,14 @@
         <v>808341.7</v>
       </c>
       <c r="J197" s="22" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K197" s="25"/>
     </row>
-    <row r="198" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A198" s="24"/>
       <c r="B198" s="22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C198" s="15">
         <v>30437.200000000001</v>
@@ -14658,14 +14781,14 @@
         <v>808097.9</v>
       </c>
       <c r="J198" s="22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K198" s="25"/>
     </row>
-    <row r="199" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A199" s="24"/>
       <c r="B199" s="22" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C199" s="15">
         <v>30918.04</v>
@@ -14689,14 +14812,14 @@
         <v>820782.22</v>
       </c>
       <c r="J199" s="22" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K199" s="25"/>
     </row>
-    <row r="200" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A200" s="24"/>
       <c r="B200" s="22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C200" s="15">
         <v>30363.88</v>
@@ -14720,16 +14843,16 @@
         <v>872007</v>
       </c>
       <c r="J200" s="22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K200" s="25"/>
     </row>
-    <row r="201" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A201" s="24">
         <v>2018</v>
       </c>
       <c r="B201" s="22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C201" s="15">
         <v>30302.85</v>
@@ -14753,16 +14876,16 @@
         <v>834388.65</v>
       </c>
       <c r="J201" s="22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K201" s="25">
         <v>2018</v>
       </c>
     </row>
-    <row r="202" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A202" s="24"/>
       <c r="B202" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C202" s="15">
         <v>31441.23</v>
@@ -14786,14 +14909,14 @@
         <v>821646.63</v>
       </c>
       <c r="J202" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K202" s="25"/>
     </row>
-    <row r="203" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A203" s="24"/>
       <c r="B203" s="22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C203" s="15">
         <v>30553.52</v>
@@ -14817,14 +14940,14 @@
         <v>838634.06</v>
       </c>
       <c r="J203" s="22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K203" s="25"/>
     </row>
-    <row r="204" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A204" s="24"/>
       <c r="B204" s="22" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C204" s="15">
         <v>34748.42</v>
@@ -14848,14 +14971,14 @@
         <v>861198.58</v>
       </c>
       <c r="J204" s="22" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K204" s="25"/>
     </row>
-    <row r="205" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A205" s="24"/>
       <c r="B205" s="22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C205" s="15">
         <v>34754.120000000003</v>
@@ -14879,14 +15002,14 @@
         <v>886473.78</v>
       </c>
       <c r="J205" s="22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K205" s="25"/>
     </row>
-    <row r="206" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A206" s="24"/>
       <c r="B206" s="22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C206" s="15">
         <v>36037.33</v>
@@ -14910,14 +15033,14 @@
         <v>893108.34</v>
       </c>
       <c r="J206" s="22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K206" s="25"/>
     </row>
-    <row r="207" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A207" s="24"/>
       <c r="B207" s="22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C207" s="15">
         <v>37078.82</v>
@@ -14941,14 +15064,14 @@
         <v>896656.68</v>
       </c>
       <c r="J207" s="22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K207" s="25"/>
     </row>
-    <row r="208" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A208" s="24"/>
       <c r="B208" s="22" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C208" s="15">
         <v>35222.46</v>
@@ -14972,14 +15095,14 @@
         <v>910768.66</v>
       </c>
       <c r="J208" s="22" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K208" s="25"/>
     </row>
-    <row r="209" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A209" s="24"/>
       <c r="B209" s="22" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C209" s="15">
         <v>33352.01</v>
@@ -15003,14 +15126,14 @@
         <v>917206.8</v>
       </c>
       <c r="J209" s="22" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K209" s="25"/>
     </row>
-    <row r="210" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A210" s="24"/>
       <c r="B210" s="22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C210" s="15">
         <v>35001.910000000003</v>
@@ -15034,14 +15157,14 @@
         <v>924283.43</v>
       </c>
       <c r="J210" s="22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K210" s="25"/>
     </row>
-    <row r="211" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A211" s="24"/>
       <c r="B211" s="22" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C211" s="15">
         <v>36708.94</v>
@@ -15065,14 +15188,14 @@
         <v>937769.77</v>
       </c>
       <c r="J211" s="22" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K211" s="25"/>
     </row>
-    <row r="212" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A212" s="24"/>
       <c r="B212" s="22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C212" s="15">
         <v>35501.879999999997</v>
@@ -15096,16 +15219,16 @@
         <v>1017826.23</v>
       </c>
       <c r="J212" s="22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K212" s="25"/>
     </row>
-    <row r="213" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A213" s="24">
         <v>2019</v>
       </c>
       <c r="B213" s="22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C213" s="15">
         <v>36957.68</v>
@@ -15129,16 +15252,16 @@
         <v>968060.76</v>
       </c>
       <c r="J213" s="22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K213" s="25">
         <v>2019</v>
       </c>
     </row>
-    <row r="214" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A214" s="24"/>
       <c r="B214" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C214" s="15">
         <v>39369.120000000003</v>
@@ -15162,14 +15285,14 @@
         <v>947253.28</v>
       </c>
       <c r="J214" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K214" s="25"/>
     </row>
-    <row r="215" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A215" s="24"/>
       <c r="B215" s="22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C215" s="15">
         <v>42228.11</v>
@@ -15193,14 +15316,14 @@
         <v>974834.3</v>
       </c>
       <c r="J215" s="22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K215" s="25"/>
     </row>
-    <row r="216" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A216" s="24"/>
       <c r="B216" s="22" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C216" s="15">
         <v>49233.85</v>
@@ -15224,14 +15347,14 @@
         <v>993912.97</v>
       </c>
       <c r="J216" s="22" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K216" s="25"/>
     </row>
-    <row r="217" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A217" s="24"/>
       <c r="B217" s="22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C217" s="15">
         <v>55137.05</v>
@@ -15255,14 +15378,14 @@
         <v>1012169.67</v>
       </c>
       <c r="J217" s="22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K217" s="25"/>
     </row>
-    <row r="218" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A218" s="24"/>
       <c r="B218" s="22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C218" s="15">
         <v>49215.13</v>
@@ -15286,14 +15409,14 @@
         <v>1031002.43</v>
       </c>
       <c r="J218" s="22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K218" s="25"/>
     </row>
-    <row r="219" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A219" s="24"/>
       <c r="B219" s="22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C219" s="15">
         <v>49104.86</v>
@@ -15317,14 +15440,14 @@
         <v>1039298.1</v>
       </c>
       <c r="J219" s="22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K219" s="25"/>
     </row>
-    <row r="220" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A220" s="24"/>
       <c r="B220" s="22" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C220" s="15">
         <v>50575.199999999997</v>
@@ -15348,14 +15471,14 @@
         <v>1076460.6399999999</v>
       </c>
       <c r="J220" s="22" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K220" s="25"/>
     </row>
-    <row r="221" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A221" s="24"/>
       <c r="B221" s="22" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C221" s="15">
         <v>50651.587</v>
@@ -15379,14 +15502,14 @@
         <v>1092989.2350000001</v>
       </c>
       <c r="J221" s="22" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K221" s="25"/>
     </row>
-    <row r="222" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A222" s="24"/>
       <c r="B222" s="22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C222" s="15">
         <v>50707.171000000002</v>
@@ -15410,14 +15533,14 @@
         <v>1099445.6569999999</v>
       </c>
       <c r="J222" s="22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K222" s="25"/>
     </row>
-    <row r="223" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A223" s="24"/>
       <c r="B223" s="22" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C223" s="15">
         <v>50917.756999999998</v>
@@ -15441,14 +15564,14 @@
         <v>1106287.9739999999</v>
       </c>
       <c r="J223" s="22" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K223" s="25"/>
     </row>
-    <row r="224" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A224" s="24"/>
       <c r="B224" s="22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C224" s="15">
         <v>53591.404000000002</v>
@@ -15472,16 +15595,16 @@
         <v>1186596.257</v>
       </c>
       <c r="J224" s="22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K224" s="25"/>
     </row>
-    <row r="225" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A225" s="24">
         <v>2020</v>
       </c>
       <c r="B225" s="22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C225" s="15">
         <v>54962.023000000001</v>
@@ -15505,16 +15628,16 @@
         <v>1151051.7379999999</v>
       </c>
       <c r="J225" s="22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K225" s="25">
         <v>2020</v>
       </c>
     </row>
-    <row r="226" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A226" s="24"/>
       <c r="B226" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C226" s="15">
         <v>53052.716999999997</v>
@@ -15538,14 +15661,14 @@
         <v>1155716.6089999999</v>
       </c>
       <c r="J226" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K226" s="25"/>
     </row>
-    <row r="227" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A227" s="24"/>
       <c r="B227" s="22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C227" s="15">
         <v>49494.069000000003</v>
@@ -15569,14 +15692,14 @@
         <v>1210177.5020000001</v>
       </c>
       <c r="J227" s="22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K227" s="25"/>
     </row>
-    <row r="228" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A228" s="24"/>
       <c r="B228" s="22" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C228" s="15">
         <v>53906.591999999997</v>
@@ -15600,14 +15723,14 @@
         <v>1255493.3149999999</v>
       </c>
       <c r="J228" s="22" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K228" s="25"/>
     </row>
-    <row r="229" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A229" s="24"/>
       <c r="B229" s="22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C229" s="15">
         <v>54548.41</v>
@@ -15631,14 +15754,14 @@
         <v>1356065.8</v>
       </c>
       <c r="J229" s="22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K229" s="25"/>
     </row>
-    <row r="230" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A230" s="24"/>
       <c r="B230" s="22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C230" s="15">
         <v>57004.377999999997</v>
@@ -15662,14 +15785,14 @@
         <v>1403656.6769999999</v>
       </c>
       <c r="J230" s="22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K230" s="25"/>
     </row>
-    <row r="231" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A231" s="24"/>
       <c r="B231" s="22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C231" s="15">
         <v>57982.084000000003</v>
@@ -15693,14 +15816,14 @@
         <v>1398681.8840000001</v>
       </c>
       <c r="J231" s="22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K231" s="25"/>
     </row>
-    <row r="232" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A232" s="24"/>
       <c r="B232" s="22" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C232" s="15">
         <v>57475.9</v>
@@ -15724,14 +15847,14 @@
         <v>1415025.63</v>
       </c>
       <c r="J232" s="22" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K232" s="25"/>
     </row>
-    <row r="233" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A233" s="24"/>
       <c r="B233" s="22" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C233" s="15">
         <v>58780.006999999998</v>
@@ -15755,14 +15878,14 @@
         <v>1463282.895</v>
       </c>
       <c r="J233" s="22" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K233" s="25"/>
     </row>
-    <row r="234" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A234" s="24"/>
       <c r="B234" s="22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C234" s="15">
         <v>60263.493000000002</v>
@@ -15786,14 +15909,14 @@
         <v>1448620.818</v>
       </c>
       <c r="J234" s="22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K234" s="25"/>
     </row>
-    <row r="235" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A235" s="24"/>
       <c r="B235" s="22" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C235" s="15">
         <v>59793.07</v>
@@ -15817,14 +15940,14 @@
         <v>1444527.6610000001</v>
       </c>
       <c r="J235" s="22" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K235" s="25"/>
     </row>
-    <row r="236" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A236" s="24"/>
       <c r="B236" s="22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C236" s="15">
         <v>59908.987999999998</v>
@@ -15848,16 +15971,16 @@
         <v>1553797.4410000001</v>
       </c>
       <c r="J236" s="22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K236" s="25"/>
     </row>
-    <row r="237" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A237" s="24">
         <v>2021</v>
       </c>
       <c r="B237" s="22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C237" s="15">
         <v>60745.249000000003</v>
@@ -15881,16 +16004,16 @@
         <v>1509212.371</v>
       </c>
       <c r="J237" s="22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K237" s="25">
         <v>2021</v>
       </c>
     </row>
-    <row r="238" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A238" s="24"/>
       <c r="B238" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C238" s="15">
         <v>59565.165999999997</v>
@@ -15914,14 +16037,14 @@
         <v>1503160.67</v>
       </c>
       <c r="J238" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K238" s="25"/>
     </row>
-    <row r="239" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A239" s="24"/>
       <c r="B239" s="22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C239" s="15">
         <v>58138.985000000001</v>
@@ -15945,14 +16068,14 @@
         <v>1514537.1580000001</v>
       </c>
       <c r="J239" s="22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K239" s="25"/>
     </row>
-    <row r="240" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A240" s="24"/>
       <c r="B240" s="22" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C240" s="15">
         <v>64771.201000000001</v>
@@ -15976,14 +16099,14 @@
         <v>1547940.1140000001</v>
       </c>
       <c r="J240" s="22" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K240" s="25"/>
     </row>
-    <row r="241" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A241" s="24"/>
       <c r="B241" s="22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C241" s="15">
         <v>68164.259999999995</v>
@@ -16007,14 +16130,14 @@
         <v>1578902.017</v>
       </c>
       <c r="J241" s="22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K241" s="25"/>
     </row>
-    <row r="242" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A242" s="24"/>
       <c r="B242" s="22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C242" s="15">
         <v>70205.388999999996</v>
@@ -16038,14 +16161,14 @@
         <v>1587763.878</v>
       </c>
       <c r="J242" s="22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K242" s="25"/>
     </row>
-    <row r="243" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A243" s="24"/>
       <c r="B243" s="22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C243" s="15">
         <v>68228.937000000005</v>
@@ -16069,14 +16192,14 @@
         <v>1604887.3970000001</v>
       </c>
       <c r="J243" s="22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K243" s="25"/>
     </row>
-    <row r="244" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A244" s="24"/>
       <c r="B244" s="22" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C244" s="15">
         <v>69869.03</v>
@@ -16100,14 +16223,14 @@
         <v>1626090.7830000001</v>
       </c>
       <c r="J244" s="22" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K244" s="25"/>
     </row>
-    <row r="245" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A245" s="24"/>
       <c r="B245" s="22" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C245" s="15">
         <v>68863.044999999998</v>
@@ -16131,14 +16254,14 @@
         <v>1661771.436</v>
       </c>
       <c r="J245" s="22" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K245" s="25"/>
     </row>
-    <row r="246" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A246" s="24"/>
       <c r="B246" s="22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C246" s="15">
         <v>69020.024999999994</v>
@@ -16162,14 +16285,14 @@
         <v>1653428.4369999999</v>
       </c>
       <c r="J246" s="22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K246" s="25"/>
     </row>
-    <row r="247" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A247" s="24"/>
       <c r="B247" s="22" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C247" s="15">
         <v>70498.524000000005</v>
@@ -16193,14 +16316,14 @@
         <v>1687821.223</v>
       </c>
       <c r="J247" s="22" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K247" s="25"/>
     </row>
-    <row r="248" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A248" s="24"/>
       <c r="B248" s="22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C248" s="15">
         <v>70865.582999999999</v>
@@ -16224,16 +16347,16 @@
         <v>1767997.6329999999</v>
       </c>
       <c r="J248" s="22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K248" s="25"/>
     </row>
-    <row r="249" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A249" s="24">
         <v>2022</v>
       </c>
       <c r="B249" s="22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C249" s="15">
         <v>72387.164000000004</v>
@@ -16257,16 +16380,16 @@
         <v>1709235.33</v>
       </c>
       <c r="J249" s="22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K249" s="25">
         <v>2022</v>
       </c>
     </row>
-    <row r="250" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A250" s="24"/>
       <c r="B250" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C250" s="15">
         <v>74399.918999999994</v>
@@ -16290,14 +16413,14 @@
         <v>1726633.3419999999</v>
       </c>
       <c r="J250" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K250" s="25"/>
     </row>
-    <row r="251" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A251" s="24"/>
       <c r="B251" s="22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C251" s="15">
         <v>62714.612000000001</v>
@@ -16321,14 +16444,14 @@
         <v>1608407.6410000001</v>
       </c>
       <c r="J251" s="22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K251" s="25"/>
     </row>
-    <row r="252" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A252" s="24"/>
       <c r="B252" s="22" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C252" s="15">
         <v>58538.502999999997</v>
@@ -16352,14 +16475,14 @@
         <v>1609536.213</v>
       </c>
       <c r="J252" s="22" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K252" s="25"/>
     </row>
-    <row r="253" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A253" s="24"/>
       <c r="B253" s="22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C253" s="15">
         <v>60742.434000000001</v>
@@ -16383,14 +16506,14 @@
         <v>1595724.4739999999</v>
       </c>
       <c r="J253" s="22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K253" s="25"/>
     </row>
-    <row r="254" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A254" s="24"/>
       <c r="B254" s="22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C254" s="15">
         <v>59484.214</v>
@@ -16414,14 +16537,14 @@
         <v>1607058.044</v>
       </c>
       <c r="J254" s="22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K254" s="25"/>
     </row>
-    <row r="255" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A255" s="24"/>
       <c r="B255" s="22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C255" s="15">
         <v>63770.559000000001</v>
@@ -16445,28 +16568,28 @@
         <v>1635925.38</v>
       </c>
       <c r="J255" s="22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K255" s="25"/>
     </row>
-    <row r="256" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A256" s="24"/>
       <c r="B256" s="22"/>
-      <c r="C256" s="36"/>
-      <c r="D256" s="36"/>
-      <c r="E256" s="36"/>
-      <c r="F256" s="36"/>
-      <c r="G256" s="36"/>
-      <c r="H256" s="36"/>
-      <c r="I256" s="36"/>
+      <c r="C256" s="37"/>
+      <c r="D256" s="37"/>
+      <c r="E256" s="37"/>
+      <c r="F256" s="37"/>
+      <c r="G256" s="37"/>
+      <c r="H256" s="37"/>
+      <c r="I256" s="37"/>
       <c r="J256" s="22"/>
       <c r="K256" s="25"/>
     </row>
-    <row r="257" spans="2:12" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B257" s="64" t="s">
-        <v>84</v>
-      </c>
-      <c r="C257" s="64"/>
+    <row r="257" spans="2:12" s="3" customFormat="1" ht="12" customHeight="1">
+      <c r="B257" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="C257" s="61"/>
       <c r="D257" s="11"/>
       <c r="E257" s="11"/>
       <c r="F257" s="11"/>
@@ -16476,9 +16599,9 @@
       <c r="J257" s="1"/>
       <c r="K257" s="10"/>
     </row>
-    <row r="258" spans="2:12" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:12" s="3" customFormat="1" ht="16.5" customHeight="1">
       <c r="B258" s="29" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C258" s="29"/>
       <c r="D258" s="29"/>
@@ -16489,78 +16612,78 @@
       <c r="I258" s="29"/>
       <c r="J258" s="29"/>
     </row>
-    <row r="259" spans="2:12" s="3" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B259" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="C259" s="42"/>
-      <c r="D259" s="42"/>
-      <c r="E259" s="42"/>
-      <c r="F259" s="42"/>
-      <c r="G259" s="42"/>
-      <c r="H259" s="42"/>
-      <c r="I259" s="42"/>
-      <c r="J259" s="42"/>
-      <c r="K259" s="42"/>
-    </row>
-    <row r="260" spans="2:12" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B260" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="C260" s="42"/>
-      <c r="D260" s="42"/>
-      <c r="E260" s="42"/>
-      <c r="F260" s="42"/>
-      <c r="G260" s="42"/>
-      <c r="H260" s="42"/>
-      <c r="I260" s="42"/>
-      <c r="J260" s="42"/>
-      <c r="K260" s="42"/>
-    </row>
-    <row r="261" spans="2:12" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B261" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="C261" s="42"/>
-      <c r="D261" s="42"/>
-      <c r="E261" s="42"/>
-      <c r="F261" s="42"/>
-      <c r="G261" s="42"/>
-      <c r="H261" s="42"/>
-      <c r="I261" s="42"/>
-      <c r="J261" s="42"/>
-      <c r="K261" s="42"/>
+    <row r="259" spans="2:12" s="3" customFormat="1" ht="30.6" customHeight="1">
+      <c r="B259" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="C259" s="40"/>
+      <c r="D259" s="40"/>
+      <c r="E259" s="40"/>
+      <c r="F259" s="40"/>
+      <c r="G259" s="40"/>
+      <c r="H259" s="40"/>
+      <c r="I259" s="40"/>
+      <c r="J259" s="40"/>
+      <c r="K259" s="40"/>
+    </row>
+    <row r="260" spans="2:12" s="3" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B260" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C260" s="40"/>
+      <c r="D260" s="40"/>
+      <c r="E260" s="40"/>
+      <c r="F260" s="40"/>
+      <c r="G260" s="40"/>
+      <c r="H260" s="40"/>
+      <c r="I260" s="40"/>
+      <c r="J260" s="40"/>
+      <c r="K260" s="40"/>
+    </row>
+    <row r="261" spans="2:12" s="3" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B261" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="C261" s="40"/>
+      <c r="D261" s="40"/>
+      <c r="E261" s="40"/>
+      <c r="F261" s="40"/>
+      <c r="G261" s="40"/>
+      <c r="H261" s="40"/>
+      <c r="I261" s="40"/>
+      <c r="J261" s="40"/>
+      <c r="K261" s="40"/>
       <c r="L261" s="12"/>
     </row>
-    <row r="262" spans="2:12" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:12" s="3" customFormat="1" ht="15">
       <c r="B262" s="30"/>
     </row>
-    <row r="263" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="264" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="265" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="266" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="267" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="268" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="269" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="270" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="271" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="272" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="273" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="274" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="275" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="276" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="277" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="278" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="279" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="280" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="281" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="282" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="283" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="284" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="285" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="286" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="287" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="288" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:12" s="3" customFormat="1"/>
+    <row r="264" spans="2:12" s="3" customFormat="1"/>
+    <row r="265" spans="2:12" s="3" customFormat="1"/>
+    <row r="266" spans="2:12" s="3" customFormat="1"/>
+    <row r="267" spans="2:12" s="3" customFormat="1"/>
+    <row r="268" spans="2:12" s="3" customFormat="1"/>
+    <row r="269" spans="2:12" s="3" customFormat="1"/>
+    <row r="270" spans="2:12" s="3" customFormat="1"/>
+    <row r="271" spans="2:12" s="3" customFormat="1"/>
+    <row r="272" spans="2:12" s="3" customFormat="1"/>
+    <row r="273" spans="2:10" s="3" customFormat="1"/>
+    <row r="274" spans="2:10" s="3" customFormat="1"/>
+    <row r="275" spans="2:10" s="3" customFormat="1"/>
+    <row r="276" spans="2:10" s="3" customFormat="1"/>
+    <row r="277" spans="2:10" s="3" customFormat="1"/>
+    <row r="278" spans="2:10" s="3" customFormat="1"/>
+    <row r="279" spans="2:10" s="3" customFormat="1"/>
+    <row r="280" spans="2:10" s="3" customFormat="1"/>
+    <row r="281" spans="2:10" s="3" customFormat="1"/>
+    <row r="282" spans="2:10" s="3" customFormat="1"/>
+    <row r="283" spans="2:10" s="3" customFormat="1"/>
+    <row r="284" spans="2:10" s="3" customFormat="1"/>
+    <row r="285" spans="2:10" s="3" customFormat="1"/>
+    <row r="286" spans="2:10" s="3" customFormat="1"/>
+    <row r="287" spans="2:10" s="3" customFormat="1"/>
+    <row r="288" spans="2:10" s="3" customFormat="1">
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
@@ -16573,18 +16696,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B259:K259"/>
+    <mergeCell ref="D1:E1"/>
     <mergeCell ref="B260:K260"/>
     <mergeCell ref="B261:K261"/>
     <mergeCell ref="J7:K9"/>
     <mergeCell ref="A7:B9"/>
     <mergeCell ref="B257:C257"/>
     <mergeCell ref="C7:I7"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B259:K259"/>
-    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -16740,10 +16863,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -16752,36 +16871,18 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F29FEAC6-0830-47CD-BFDF-823CBCB0AB11}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4cb8756c-3ecc-4074-b8ae-46fc2e86f577"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F29FEAC6-0830-47CD-BFDF-823CBCB0AB11}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A6C3071-5EE8-4927-B99D-283E75422520}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C161A040-2227-4334-BF9E-47852E2C8FCA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C161A040-2227-4334-BF9E-47852E2C8FCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A6C3071-5EE8-4927-B99D-283E75422520}"/>
 </file>